--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_9.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_8_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2301919.455793615</v>
+        <v>-2302631.75761666</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058543</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.817899082923868</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>2.817899082923868</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>42.11657612913427</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I11" t="n">
-        <v>62.86150506240819</v>
+        <v>62.86150506240818</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.73328122929899</v>
+        <v>2.870062340398142</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.3687304053803</v>
       </c>
       <c r="T11" t="n">
-        <v>44.31761724675141</v>
+        <v>44.31761724675137</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00227733958187</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.7315194560841</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.369887371298063</v>
+        <v>9.369887371298034</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1458,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.869455874161044</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>99.36435942429087</v>
+        <v>38.85295837495693</v>
       </c>
       <c r="T12" t="n">
-        <v>36.82265945242242</v>
+        <v>36.82265945242239</v>
       </c>
       <c r="U12" t="n">
-        <v>59.07980534382075</v>
+        <v>59.07980534382072</v>
       </c>
       <c r="V12" t="n">
-        <v>62.50065676233439</v>
+        <v>62.50065676233436</v>
       </c>
       <c r="W12" t="n">
-        <v>88.55631942394373</v>
+        <v>88.55631942394371</v>
       </c>
       <c r="X12" t="n">
-        <v>39.16465028640275</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Y12" t="n">
-        <v>45.23602198095776</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28169700256626</v>
+        <v>25.28169700256624</v>
       </c>
       <c r="S13" t="n">
-        <v>57.28978021311271</v>
+        <v>57.28978021311268</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61329429725515</v>
+        <v>45.61329429725512</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5082928154978</v>
+        <v>110.5082928154977</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96075103138205</v>
+        <v>66.96075103138202</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1624429362675</v>
+        <v>112.1624429362674</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77119125517467</v>
+        <v>43.77119125517464</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99300866110056</v>
+        <v>38.99300866110053</v>
       </c>
     </row>
     <row r="14">
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6238954891594</v>
       </c>
       <c r="E14" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="F14" t="n">
-        <v>188.4979333192471</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>128.4391958930547</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>62.86150506240821</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.36873040538033</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7315194560842</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6344501416383</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>172.8924628452017</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>187.5181515243659</v>
+        <v>9.369887371298063</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.869455874161044</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>18.58008780394481</v>
+        <v>38.85295837495671</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82265945242248</v>
+        <v>36.82265945242242</v>
       </c>
       <c r="U15" t="n">
-        <v>59.07980534382081</v>
+        <v>59.07980534382075</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50065676233444</v>
+        <v>62.50065676233439</v>
       </c>
       <c r="W15" t="n">
-        <v>88.55631942394379</v>
+        <v>88.55631942394373</v>
       </c>
       <c r="X15" t="n">
-        <v>39.1646502864028</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.23602198095782</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28169700256632</v>
+        <v>25.28169700256627</v>
       </c>
       <c r="S16" t="n">
-        <v>57.28978021311276</v>
+        <v>57.28978021311271</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61329429725521</v>
+        <v>45.61329429725515</v>
       </c>
       <c r="U16" t="n">
         <v>110.5082928154978</v>
       </c>
       <c r="V16" t="n">
-        <v>66.9607510313821</v>
+        <v>66.96075103138205</v>
       </c>
       <c r="W16" t="n">
         <v>112.1624429362675</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77119125517473</v>
+        <v>43.77119125517467</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99300866110062</v>
+        <v>38.99300866110056</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63956945084891</v>
+        <v>76.63956945084848</v>
       </c>
       <c r="C17" t="n">
         <v>52.7578264541944</v>
@@ -1859,7 +1859,7 @@
         <v>121.3905020356641</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57372768156614</v>
+        <v>49.57372768156617</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1923,28 +1923,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.3634103439874</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.869455874161044</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -1977,19 +1977,19 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>16.97108633987046</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>146.4376822541493</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E20" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F20" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G20" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156614</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="21">
@@ -2160,10 +2160,10 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -2181,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.869455874161044</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R21" t="n">
         <v>134.7198007890777</v>
@@ -2220,13 +2220,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>1.639046819770256</v>
       </c>
       <c r="Y21" t="n">
-        <v>31.94444685732009</v>
+        <v>188.4979333192471</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63956945084885</v>
+        <v>76.63956945084891</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75782645419434</v>
+        <v>52.7578264541944</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32448871524281</v>
+        <v>40.32448871524286</v>
       </c>
       <c r="E23" t="n">
-        <v>74.03124113465168</v>
+        <v>74.03124113465174</v>
       </c>
       <c r="F23" t="n">
-        <v>105.751578713029</v>
+        <v>105.7515787130291</v>
       </c>
       <c r="G23" t="n">
-        <v>121.390502035664</v>
+        <v>121.3905020356641</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57372768156608</v>
+        <v>49.57372768156617</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.43211268216754</v>
+        <v>23.4321126821676</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44879289878241</v>
+        <v>40.44879289878247</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33504336772165</v>
+        <v>62.33504336772171</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83789649146541</v>
+        <v>84.83789649146547</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2409,16 +2409,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>76.92027256543736</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,10 +2439,10 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.869455874161044</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R24" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -2454,13 +2454,13 @@
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>118.4317923311104</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2552,10 +2552,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>160.6024898538324</v>
+        <v>160.6024898538323</v>
       </c>
       <c r="C26" t="n">
-        <v>136.7207468571779</v>
+        <v>136.7207468571778</v>
       </c>
       <c r="D26" t="n">
         <v>124.2874091182263</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03224403444722</v>
+        <v>14.0322440344472</v>
       </c>
       <c r="T26" t="n">
-        <v>8.981130875818295</v>
+        <v>8.981130875818268</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66579096864879</v>
+        <v>36.66579096864876</v>
       </c>
       <c r="V26" t="n">
-        <v>107.3950330851511</v>
+        <v>107.395033085151</v>
       </c>
       <c r="W26" t="n">
         <v>124.4117133017659</v>
       </c>
       <c r="X26" t="n">
-        <v>146.2979637707052</v>
+        <v>146.2979637707051</v>
       </c>
       <c r="Y26" t="n">
         <v>168.8008168944489</v>
@@ -2631,28 +2631,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>140.4673607652018</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>70.71620529357132</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2676,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.486173081489319</v>
+        <v>1.486173081489292</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74331897288765</v>
+        <v>23.74331897288762</v>
       </c>
       <c r="V27" t="n">
-        <v>27.16417039140129</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W27" t="n">
-        <v>53.21983305301063</v>
+        <v>53.2198330530106</v>
       </c>
       <c r="X27" t="n">
-        <v>3.828163915469645</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.899535610024657</v>
+        <v>9.899535610024628</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.9532938421796</v>
+        <v>21.95329384217958</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27680792632205</v>
+        <v>10.27680792632202</v>
       </c>
       <c r="U28" t="n">
-        <v>75.17180644456465</v>
+        <v>75.17180644456462</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62426466044894</v>
+        <v>31.62426466044892</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82595656533437</v>
+        <v>76.82595656533434</v>
       </c>
       <c r="X28" t="n">
-        <v>8.434704884241569</v>
+        <v>8.43470488424154</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.656522290167459</v>
+        <v>3.65652229016743</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>205.3534224386475</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5366480845496</v>
+        <v>133.5366480845495</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52501869147503</v>
+        <v>27.52501869147505</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03224403444717</v>
+        <v>14.03224403444716</v>
       </c>
       <c r="T29" t="n">
-        <v>8.981130875818238</v>
+        <v>8.981130875818252</v>
       </c>
       <c r="U29" t="n">
         <v>36.66579096864874</v>
@@ -2868,19 +2868,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>140.4673607652023</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2892,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>19.70123548167994</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2934,10 +2934,10 @@
         <v>53.21983305301057</v>
       </c>
       <c r="X30" t="n">
-        <v>3.828163915469588</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.8995356100246</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="31">
@@ -3047,7 +3047,7 @@
         <v>132.7089382176853</v>
       </c>
       <c r="I32" t="n">
-        <v>26.69730882461081</v>
+        <v>26.69730882461084</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3114,13 +3114,13 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>36.70554179232469</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,16 +3150,16 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.869455874161044</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.6584632146250515</v>
+        <v>0.6584632146250523</v>
       </c>
       <c r="U33" t="n">
         <v>22.91560910602338</v>
@@ -3168,10 +3168,10 @@
         <v>26.33646052453702</v>
       </c>
       <c r="W33" t="n">
-        <v>52.39212318614636</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>3.000454048605377</v>
+        <v>16.16883353327966</v>
       </c>
       <c r="Y33" t="n">
         <v>9.071825743160389</v>
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3351,7 +3351,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3363,7 +3363,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>93.95921448193749</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.869455874161044</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3405,10 +3405,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>125.3147309804687</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -3579,25 +3579,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.869455874161044</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3633,19 +3633,19 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>65.42094839095792</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>35.44534100435436</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3831,16 +3831,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>6.183256677648262</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>14.39950831460067</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.869455874161044</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
         <v>266.7045835770116</v>
@@ -4031,7 +4031,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.14077227717371</v>
+        <v>9.140772277173706</v>
       </c>
       <c r="V44" t="n">
         <v>79.87001439367597</v>
@@ -4053,19 +4053,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>39.7261340294226</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4098,7 +4098,7 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.869455874161044</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -4113,16 +4113,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>25.69481436153555</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>18.09600701974602</v>
       </c>
     </row>
     <row r="46">
@@ -4826,19 +4826,19 @@
         <v>6.590454258427762</v>
       </c>
       <c r="R8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="S8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="T8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="U8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="V8" t="n">
-        <v>6.719070557086891</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="W8" t="n">
         <v>6.719070557086891</v>
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="C9" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="D9" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="E9" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="F9" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="G9" t="n">
-        <v>6.719070557086891</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="H9" t="n">
-        <v>3.487505264143985</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="I9" t="n">
         <v>0.2559399712010781</v>
@@ -4887,16 +4887,16 @@
         <v>3.42319711481442</v>
       </c>
       <c r="L9" t="n">
-        <v>3.42319711481442</v>
+        <v>6.590454258427762</v>
       </c>
       <c r="M9" t="n">
-        <v>6.590454258427762</v>
+        <v>9.757711402041103</v>
       </c>
       <c r="N9" t="n">
-        <v>6.590454258427762</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="O9" t="n">
-        <v>9.629741416440567</v>
+        <v>12.79699856005391</v>
       </c>
       <c r="P9" t="n">
         <v>12.79699856005391</v>
@@ -4914,19 +4914,19 @@
         <v>9.565433267111001</v>
       </c>
       <c r="U9" t="n">
-        <v>9.565433267111001</v>
+        <v>6.333867974168094</v>
       </c>
       <c r="V9" t="n">
-        <v>9.565433267111001</v>
+        <v>3.102302681225188</v>
       </c>
       <c r="W9" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="X9" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.565433267111001</v>
+        <v>0.2559399712010781</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>501.9222062110315</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="C11" t="n">
-        <v>459.3802101209968</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="D11" t="n">
-        <v>459.3802101209968</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="E11" t="n">
-        <v>459.3802101209968</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="F11" t="n">
-        <v>268.9782572732724</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="G11" t="n">
-        <v>78.57630442554807</v>
+        <v>249.1552281179548</v>
       </c>
       <c r="H11" t="n">
-        <v>78.57630442554807</v>
+        <v>78.57630442554805</v>
       </c>
       <c r="I11" t="n">
         <v>15.07983466553977</v>
@@ -5045,46 +5045,46 @@
         <v>115.4328134021288</v>
       </c>
       <c r="L11" t="n">
-        <v>162.1536558828889</v>
+        <v>302.0457673881834</v>
       </c>
       <c r="M11" t="n">
-        <v>348.7666098689436</v>
+        <v>488.658721374238</v>
       </c>
       <c r="N11" t="n">
-        <v>470.7932078558721</v>
+        <v>563.9866145099303</v>
       </c>
       <c r="O11" t="n">
-        <v>505.0138425485399</v>
+        <v>598.2072492025979</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4395714324992</v>
+        <v>666.4395714324988</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0894290049694</v>
+        <v>751.092680407899</v>
       </c>
       <c r="S11" t="n">
-        <v>737.0894290049694</v>
+        <v>701.2252759580199</v>
       </c>
       <c r="T11" t="n">
-        <v>692.3241590587559</v>
+        <v>656.4600060118064</v>
       </c>
       <c r="U11" t="n">
-        <v>692.3241590587559</v>
+        <v>583.7304329415217</v>
       </c>
       <c r="V11" t="n">
-        <v>692.3241590587559</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="W11" t="n">
-        <v>692.3241590587559</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="X11" t="n">
-        <v>692.3241590587559</v>
+        <v>439.5571809656792</v>
       </c>
       <c r="Y11" t="n">
-        <v>501.9222062110315</v>
+        <v>439.5571809656792</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>311.9776640362474</v>
+        <v>77.54958997382326</v>
       </c>
       <c r="C12" t="n">
-        <v>302.5131313379665</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="D12" t="n">
-        <v>302.5131313379665</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="E12" t="n">
-        <v>302.5131313379665</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="F12" t="n">
-        <v>142.0854150552106</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="G12" t="n">
-        <v>142.0854150552106</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="H12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="I12" t="n">
-        <v>15.07983466553977</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="J12" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K12" t="n">
-        <v>53.04316068142015</v>
+        <v>53.04316068142005</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3760798097942</v>
+        <v>170.3760798097941</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3666200188887</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9917332769886</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0528889596542</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="S12" t="n">
-        <v>646.6848491371381</v>
+        <v>707.8074764596973</v>
       </c>
       <c r="T12" t="n">
-        <v>609.4902436296408</v>
+        <v>670.6128709522</v>
       </c>
       <c r="U12" t="n">
-        <v>549.8136725752763</v>
+        <v>610.9362998978356</v>
       </c>
       <c r="V12" t="n">
-        <v>486.6816960476658</v>
+        <v>547.8043233702251</v>
       </c>
       <c r="W12" t="n">
-        <v>397.2308683467126</v>
+        <v>458.3534956692719</v>
       </c>
       <c r="X12" t="n">
-        <v>357.6706155321643</v>
+        <v>267.9515428215476</v>
       </c>
       <c r="Y12" t="n">
-        <v>311.9776640362474</v>
+        <v>77.54958997382326</v>
       </c>
     </row>
     <row r="13">
@@ -5179,67 +5179,67 @@
         <v>15.07983466553977</v>
       </c>
       <c r="D13" t="n">
-        <v>47.71579242887335</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E13" t="n">
-        <v>61.11495275834133</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F13" t="n">
-        <v>61.11495275834133</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G13" t="n">
-        <v>61.11495275834133</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H13" t="n">
-        <v>61.11495275834133</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I13" t="n">
-        <v>61.11495275834133</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J13" t="n">
-        <v>118.4445227627986</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K13" t="n">
-        <v>118.4445227627986</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L13" t="n">
-        <v>262.9810061886387</v>
+        <v>111.5789214220059</v>
       </c>
       <c r="M13" t="n">
-        <v>262.9810061886387</v>
+        <v>262.9810061886386</v>
       </c>
       <c r="N13" t="n">
-        <v>262.9810061886387</v>
+        <v>262.9810061886386</v>
       </c>
       <c r="O13" t="n">
-        <v>402.2436925423769</v>
+        <v>402.2436925423768</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7166611426677</v>
+        <v>520.7166611426676</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7166611426677</v>
+        <v>520.7166611426676</v>
       </c>
       <c r="R13" t="n">
-        <v>495.1795934633078</v>
+        <v>495.1795934633077</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3111286015778</v>
+        <v>437.3111286015777</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2370939578857</v>
+        <v>391.2370939578856</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6125557604133</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V13" t="n">
-        <v>211.975433506492</v>
+        <v>211.9754335064919</v>
       </c>
       <c r="W13" t="n">
-        <v>98.68003660117132</v>
+        <v>98.68003660117125</v>
       </c>
       <c r="X13" t="n">
-        <v>54.46671210099488</v>
+        <v>54.46671210099485</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07983466553977</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>395.8837403609886</v>
+        <v>559.9510768512664</v>
       </c>
       <c r="C14" t="n">
-        <v>395.8837403609886</v>
+        <v>559.9510768512664</v>
       </c>
       <c r="D14" t="n">
-        <v>395.8837403609886</v>
+        <v>398.7148187814084</v>
       </c>
       <c r="E14" t="n">
-        <v>205.4817875132642</v>
+        <v>208.312865933684</v>
       </c>
       <c r="F14" t="n">
-        <v>15.07983466553977</v>
+        <v>208.312865933684</v>
       </c>
       <c r="G14" t="n">
-        <v>15.07983466553977</v>
+        <v>78.57630442554802</v>
       </c>
       <c r="H14" t="n">
-        <v>15.07983466553977</v>
+        <v>78.57630442554802</v>
       </c>
       <c r="I14" t="n">
         <v>15.07983466553977</v>
@@ -5279,49 +5279,49 @@
         <v>115.4328134021288</v>
       </c>
       <c r="K14" t="n">
-        <v>115.4902538590856</v>
+        <v>285.1396746888279</v>
       </c>
       <c r="L14" t="n">
-        <v>162.2110963398457</v>
+        <v>471.7526286748825</v>
       </c>
       <c r="M14" t="n">
-        <v>243.0729954267929</v>
+        <v>552.6145277618298</v>
       </c>
       <c r="N14" t="n">
-        <v>318.4008885624853</v>
+        <v>627.9424208975221</v>
       </c>
       <c r="O14" t="n">
-        <v>505.01384254854</v>
+        <v>662.1630555901897</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4395714324992</v>
+        <v>666.4395714324988</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="S14" t="n">
-        <v>753.9917332769885</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="T14" t="n">
-        <v>753.9917332769885</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="U14" t="n">
-        <v>753.9917332769885</v>
+        <v>704.1243288271091</v>
       </c>
       <c r="V14" t="n">
-        <v>753.9917332769885</v>
+        <v>559.9510768512664</v>
       </c>
       <c r="W14" t="n">
-        <v>753.9917332769885</v>
+        <v>559.9510768512664</v>
       </c>
       <c r="X14" t="n">
-        <v>570.5225917197781</v>
+        <v>559.9510768512664</v>
       </c>
       <c r="Y14" t="n">
-        <v>395.8837403609886</v>
+        <v>559.9510768512664</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>257.4973315425786</v>
+        <v>77.54958997382329</v>
       </c>
       <c r="C15" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="D15" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="E15" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="F15" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="G15" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="H15" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="I15" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="J15" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K15" t="n">
-        <v>53.04316068142013</v>
+        <v>53.0431606814201</v>
       </c>
       <c r="L15" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6656803998543</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O15" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q15" t="n">
-        <v>747.0528889596541</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="R15" t="n">
-        <v>610.9722821019999</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="S15" t="n">
-        <v>592.2045166434698</v>
+        <v>707.8074764596976</v>
       </c>
       <c r="T15" t="n">
-        <v>555.0099111359723</v>
+        <v>670.6128709522002</v>
       </c>
       <c r="U15" t="n">
-        <v>495.3333400816078</v>
+        <v>610.9362998978357</v>
       </c>
       <c r="V15" t="n">
-        <v>432.2013635539972</v>
+        <v>547.8043233702252</v>
       </c>
       <c r="W15" t="n">
-        <v>342.7505358530439</v>
+        <v>458.3534956692719</v>
       </c>
       <c r="X15" t="n">
-        <v>303.1902830384956</v>
+        <v>267.9515428215476</v>
       </c>
       <c r="Y15" t="n">
-        <v>257.4973315425786</v>
+        <v>77.54958997382329</v>
       </c>
     </row>
     <row r="16">
@@ -5416,67 +5416,67 @@
         <v>15.07983466553977</v>
       </c>
       <c r="D16" t="n">
-        <v>47.71579242887329</v>
+        <v>47.71579242887334</v>
       </c>
       <c r="E16" t="n">
-        <v>83.82319414030766</v>
+        <v>83.82319414030778</v>
       </c>
       <c r="F16" t="n">
-        <v>122.6523622555826</v>
+        <v>122.6523622555828</v>
       </c>
       <c r="G16" t="n">
-        <v>122.6523622555826</v>
+        <v>132.005376589239</v>
       </c>
       <c r="H16" t="n">
-        <v>122.6523622555826</v>
+        <v>132.005376589239</v>
       </c>
       <c r="I16" t="n">
-        <v>122.6523622555826</v>
+        <v>132.005376589239</v>
       </c>
       <c r="J16" t="n">
-        <v>122.6523622555826</v>
+        <v>132.005376589239</v>
       </c>
       <c r="K16" t="n">
-        <v>122.6523622555826</v>
+        <v>132.005376589239</v>
       </c>
       <c r="L16" t="n">
-        <v>122.6523622555826</v>
+        <v>132.005376589239</v>
       </c>
       <c r="M16" t="n">
-        <v>221.4421490729815</v>
+        <v>132.005376589239</v>
       </c>
       <c r="N16" t="n">
-        <v>381.4539747889301</v>
+        <v>292.0172023051877</v>
       </c>
       <c r="O16" t="n">
-        <v>520.7166611426682</v>
+        <v>351.821727134892</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7166611426682</v>
+        <v>470.2946957351828</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7166611426682</v>
+        <v>520.7166611426676</v>
       </c>
       <c r="R16" t="n">
-        <v>495.1795934633082</v>
+        <v>495.1795934633078</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3111286015782</v>
+        <v>437.3111286015778</v>
       </c>
       <c r="T16" t="n">
-        <v>391.237093957886</v>
+        <v>391.2370939578857</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6125557604135</v>
+        <v>279.6125557604132</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9754335064922</v>
+        <v>211.975433506492</v>
       </c>
       <c r="W16" t="n">
-        <v>98.68003660117144</v>
+        <v>98.68003660117131</v>
       </c>
       <c r="X16" t="n">
-        <v>54.46671210099494</v>
+        <v>54.46671210099488</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07983466553977</v>
@@ -5489,10 +5489,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3923242961943</v>
+        <v>463.3923242961942</v>
       </c>
       <c r="C17" t="n">
-        <v>410.1015905040787</v>
+        <v>410.1015905040786</v>
       </c>
       <c r="D17" t="n">
         <v>369.369783721005</v>
@@ -5501,64 +5501,64 @@
         <v>294.5907522718618</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7709757940547</v>
+        <v>187.7709757940546</v>
       </c>
       <c r="G17" t="n">
-        <v>65.15430707116214</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H17" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95335735993305</v>
+        <v>70.95335735993304</v>
       </c>
       <c r="J17" t="n">
-        <v>257.5663113459877</v>
+        <v>257.5663113459876</v>
       </c>
       <c r="K17" t="n">
-        <v>257.5663113459877</v>
+        <v>294.2638698198648</v>
       </c>
       <c r="L17" t="n">
-        <v>304.2871538267478</v>
+        <v>340.9847123006248</v>
       </c>
       <c r="M17" t="n">
-        <v>385.1490529136951</v>
+        <v>421.846611387572</v>
       </c>
       <c r="N17" t="n">
-        <v>460.4769460493874</v>
+        <v>497.1745045232643</v>
       </c>
       <c r="O17" t="n">
-        <v>494.6975807420552</v>
+        <v>531.395139215932</v>
       </c>
       <c r="P17" t="n">
-        <v>494.6975807420552</v>
+        <v>531.395139215932</v>
       </c>
       <c r="Q17" t="n">
-        <v>679.759761645095</v>
+        <v>531.395139215932</v>
       </c>
       <c r="R17" t="n">
-        <v>679.759761645095</v>
+        <v>632.9356035051034</v>
       </c>
       <c r="S17" t="n">
-        <v>679.759761645095</v>
+        <v>632.9356035051034</v>
       </c>
       <c r="T17" t="n">
-        <v>753.9917332769885</v>
+        <v>707.1675751369969</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="V17" t="n">
-        <v>730.3229325879302</v>
+        <v>730.3229325879299</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235032</v>
       </c>
       <c r="X17" t="n">
-        <v>626.5008757530775</v>
+        <v>626.5008757530773</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.8060308122033</v>
+        <v>540.8060308122028</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>539.5084246575151</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="C18" t="n">
-        <v>350.0961503904788</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="D18" t="n">
-        <v>350.0961503904788</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="E18" t="n">
-        <v>176.5329465118933</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="F18" t="n">
-        <v>176.5329465118933</v>
+        <v>218.3321325024382</v>
       </c>
       <c r="G18" t="n">
-        <v>176.5329465118933</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5329465118933</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="I18" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="J18" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K18" t="n">
-        <v>53.04316068142013</v>
+        <v>53.0431606814201</v>
       </c>
       <c r="L18" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6656803998542</v>
+        <v>538.6656803998541</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188884</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769883</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0528889596541</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0528889596541</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="S18" t="n">
-        <v>747.0528889596541</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="T18" t="n">
-        <v>747.0528889596541</v>
+        <v>747.0528889596538</v>
       </c>
       <c r="U18" t="n">
-        <v>747.0528889596541</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="V18" t="n">
-        <v>747.0528889596541</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="W18" t="n">
-        <v>729.9103775052395</v>
+        <v>556.6509361119295</v>
       </c>
       <c r="X18" t="n">
-        <v>539.5084246575151</v>
+        <v>366.2489832642052</v>
       </c>
       <c r="Y18" t="n">
-        <v>539.5084246575151</v>
+        <v>218.3321325024382</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3923242961941</v>
+        <v>463.392324296194</v>
       </c>
       <c r="C20" t="n">
-        <v>410.1015905040787</v>
+        <v>410.1015905040785</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3697837210051</v>
+        <v>369.3697837210049</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5907522718621</v>
+        <v>294.5907522718618</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7709757940556</v>
+        <v>187.7709757940548</v>
       </c>
       <c r="G20" t="n">
-        <v>65.15430707116208</v>
+        <v>65.15430707116214</v>
       </c>
       <c r="H20" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95335735993311</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95335735993311</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K20" t="n">
-        <v>70.95335735993311</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6741998406932</v>
+        <v>61.8006771462998</v>
       </c>
       <c r="M20" t="n">
-        <v>198.5360989276405</v>
+        <v>142.662576233247</v>
       </c>
       <c r="N20" t="n">
-        <v>273.8639920633328</v>
+        <v>217.9904693689393</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0846267560005</v>
+        <v>252.211104061607</v>
       </c>
       <c r="P20" t="n">
-        <v>308.0846267560005</v>
+        <v>275.5508156250265</v>
       </c>
       <c r="Q20" t="n">
         <v>462.1637696110812</v>
       </c>
       <c r="R20" t="n">
-        <v>563.7042339002527</v>
+        <v>563.7042339002526</v>
       </c>
       <c r="S20" t="n">
-        <v>632.9356035051036</v>
+        <v>632.9356035051035</v>
       </c>
       <c r="T20" t="n">
-        <v>707.1675751369971</v>
+        <v>707.167575136997</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="V20" t="n">
         <v>730.3229325879302</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4655660235035</v>
+        <v>689.4655660235034</v>
       </c>
       <c r="X20" t="n">
-        <v>626.5008757530776</v>
+        <v>626.5008757530774</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.8060308122035</v>
+        <v>540.8060308122031</v>
       </c>
     </row>
     <row r="21">
@@ -5805,10 +5805,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>578.7051640643028</v>
+        <v>228.5127735582983</v>
       </c>
       <c r="C21" t="n">
-        <v>389.2928897972665</v>
+        <v>228.5127735582983</v>
       </c>
       <c r="D21" t="n">
         <v>228.5127735582983</v>
@@ -5817,22 +5817,22 @@
         <v>228.5127735582983</v>
       </c>
       <c r="F21" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="G21" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="H21" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="I21" t="n">
-        <v>68.0850572755424</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="J21" t="n">
         <v>15.07983466553977</v>
       </c>
       <c r="K21" t="n">
-        <v>53.04316068142013</v>
+        <v>53.04316068142012</v>
       </c>
       <c r="L21" t="n">
         <v>170.3760798097942</v>
@@ -5844,37 +5844,37 @@
         <v>538.6656803998542</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3666200188886</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9917332769885</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0528889596541</v>
+        <v>747.052888959654</v>
       </c>
       <c r="R21" t="n">
-        <v>610.9722821019999</v>
+        <v>610.9722821019998</v>
       </c>
       <c r="S21" t="n">
-        <v>610.9722821019999</v>
+        <v>610.9722821019998</v>
       </c>
       <c r="T21" t="n">
-        <v>610.9722821019999</v>
+        <v>610.9722821019998</v>
       </c>
       <c r="U21" t="n">
-        <v>610.9722821019999</v>
+        <v>610.9722821019998</v>
       </c>
       <c r="V21" t="n">
-        <v>610.9722821019999</v>
+        <v>610.9722821019998</v>
       </c>
       <c r="W21" t="n">
-        <v>610.9722821019999</v>
+        <v>420.5703292542754</v>
       </c>
       <c r="X21" t="n">
-        <v>610.9722821019999</v>
+        <v>418.9147264060226</v>
       </c>
       <c r="Y21" t="n">
-        <v>578.7051640643028</v>
+        <v>228.5127735582983</v>
       </c>
     </row>
     <row r="22">
@@ -5975,43 +5975,43 @@
         <v>294.5907522718624</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7709757940553</v>
+        <v>187.7709757940552</v>
       </c>
       <c r="G23" t="n">
-        <v>65.15430707116209</v>
+        <v>65.15430707116217</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I23" t="n">
-        <v>22.57842613692699</v>
+        <v>70.95335735993304</v>
       </c>
       <c r="J23" t="n">
-        <v>209.1913801229817</v>
+        <v>70.95335735993304</v>
       </c>
       <c r="K23" t="n">
-        <v>209.1913801229817</v>
+        <v>70.95335735993304</v>
       </c>
       <c r="L23" t="n">
-        <v>255.9122226037418</v>
+        <v>117.6741998406931</v>
       </c>
       <c r="M23" t="n">
-        <v>336.7741216906891</v>
+        <v>198.5360989276403</v>
       </c>
       <c r="N23" t="n">
-        <v>412.1020148263814</v>
+        <v>273.8639920633325</v>
       </c>
       <c r="O23" t="n">
-        <v>446.3226495190492</v>
+        <v>308.0846267560002</v>
       </c>
       <c r="P23" t="n">
-        <v>446.3226495190492</v>
+        <v>308.0846267560002</v>
       </c>
       <c r="Q23" t="n">
-        <v>632.9356035051039</v>
+        <v>462.1637696110816</v>
       </c>
       <c r="R23" t="n">
-        <v>632.9356035051039</v>
+        <v>563.704233900253</v>
       </c>
       <c r="S23" t="n">
         <v>632.9356035051039</v>
@@ -6032,7 +6032,7 @@
         <v>626.5008757530779</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.8060308122036</v>
+        <v>540.8060308122037</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>432.4364291750651</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="C24" t="n">
-        <v>243.0241549080289</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="D24" t="n">
-        <v>243.0241549080289</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="E24" t="n">
-        <v>243.0241549080289</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="F24" t="n">
-        <v>243.0241549080289</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="G24" t="n">
-        <v>92.77707968113307</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="H24" t="n">
-        <v>92.77707968113307</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07983466553978</v>
+        <v>68.08505727554241</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K24" t="n">
-        <v>53.04316068142014</v>
+        <v>53.0431606814201</v>
       </c>
       <c r="L24" t="n">
         <v>170.3760798097942</v>
       </c>
       <c r="M24" t="n">
-        <v>352.0527264137996</v>
+        <v>352.0527264137995</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6656803998544</v>
+        <v>538.6656803998542</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3666200188889</v>
+        <v>670.3666200188885</v>
       </c>
       <c r="P24" t="n">
-        <v>753.9917332769888</v>
+        <v>753.9917332769884</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0528889596544</v>
+        <v>747.052888959654</v>
       </c>
       <c r="R24" t="n">
-        <v>610.9722821020002</v>
+        <v>747.052888959654</v>
       </c>
       <c r="S24" t="n">
-        <v>610.9722821020002</v>
+        <v>747.052888959654</v>
       </c>
       <c r="T24" t="n">
-        <v>610.9722821020002</v>
+        <v>747.052888959654</v>
       </c>
       <c r="U24" t="n">
-        <v>610.9722821020002</v>
+        <v>747.052888959654</v>
       </c>
       <c r="V24" t="n">
-        <v>610.9722821020002</v>
+        <v>627.4248158979262</v>
       </c>
       <c r="W24" t="n">
-        <v>610.9722821020002</v>
+        <v>437.0228630502019</v>
       </c>
       <c r="X24" t="n">
-        <v>610.9722821020002</v>
+        <v>246.6209102024775</v>
       </c>
       <c r="Y24" t="n">
-        <v>610.9722821020002</v>
+        <v>246.6209102024775</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07983466553978</v>
+        <v>15.07983466553977</v>
       </c>
     </row>
     <row r="26">
@@ -6203,13 +6203,13 @@
         <v>1020.89842248961</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7966579874098</v>
+        <v>882.7966579874097</v>
       </c>
       <c r="D26" t="n">
-        <v>757.253820494252</v>
+        <v>757.2538204942518</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6637583350245</v>
+        <v>597.6637583350243</v>
       </c>
       <c r="F26" t="n">
         <v>406.032951147133</v>
@@ -6224,16 +6224,16 @@
         <v>35.91669941514206</v>
       </c>
       <c r="J26" t="n">
-        <v>171.2527996589549</v>
+        <v>171.252799658955</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9427824528779</v>
+        <v>375.942782452878</v>
       </c>
       <c r="L26" t="n">
-        <v>634.0135279523988</v>
+        <v>634.013527952399</v>
       </c>
       <c r="M26" t="n">
-        <v>926.2253300581069</v>
+        <v>926.2253300581071</v>
       </c>
       <c r="N26" t="n">
         <v>1212.90312621256</v>
@@ -6279,25 +6279,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>530.6877358154518</v>
+        <v>234.3527902023597</v>
       </c>
       <c r="C27" t="n">
-        <v>530.6877358154518</v>
+        <v>234.3527902023597</v>
       </c>
       <c r="D27" t="n">
-        <v>369.9076195764835</v>
+        <v>234.3527902023597</v>
       </c>
       <c r="E27" t="n">
-        <v>196.344415697898</v>
+        <v>234.3527902023597</v>
       </c>
       <c r="F27" t="n">
-        <v>35.91669941514206</v>
+        <v>234.3527902023597</v>
       </c>
       <c r="G27" t="n">
-        <v>35.91669941514206</v>
+        <v>234.3527902023597</v>
       </c>
       <c r="H27" t="n">
-        <v>35.91669941514206</v>
+        <v>107.3472098126889</v>
       </c>
       <c r="I27" t="n">
         <v>35.91669941514206</v>
@@ -6306,7 +6306,7 @@
         <v>35.91669941514206</v>
       </c>
       <c r="K27" t="n">
-        <v>73.88002543102243</v>
+        <v>73.8800254310224</v>
       </c>
       <c r="L27" t="n">
         <v>191.2129445593965</v>
@@ -6315,40 +6315,40 @@
         <v>372.8895911634019</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7945675741611</v>
+        <v>577.794567574161</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4955071931954</v>
+        <v>709.4955071931953</v>
       </c>
       <c r="P27" t="n">
-        <v>793.1206204512953</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="Q27" t="n">
-        <v>793.1206204512953</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="R27" t="n">
-        <v>793.1206204512953</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="S27" t="n">
-        <v>793.1206204512953</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="T27" t="n">
-        <v>791.619435520498</v>
+        <v>784.6805912031634</v>
       </c>
       <c r="U27" t="n">
-        <v>767.6362850428337</v>
+        <v>760.6974407254992</v>
       </c>
       <c r="V27" t="n">
-        <v>740.1977290919233</v>
+        <v>517.6177226291333</v>
       </c>
       <c r="W27" t="n">
-        <v>686.4403219676701</v>
+        <v>463.8603155048801</v>
       </c>
       <c r="X27" t="n">
-        <v>682.573489729822</v>
+        <v>244.3523211215765</v>
       </c>
       <c r="Y27" t="n">
-        <v>672.5739588106052</v>
+        <v>234.3527902023597</v>
       </c>
     </row>
     <row r="28">
@@ -6367,64 +6367,64 @@
         <v>35.91669941514206</v>
       </c>
       <c r="E28" t="n">
-        <v>91.91670631504749</v>
+        <v>107.0072226338003</v>
       </c>
       <c r="F28" t="n">
-        <v>91.91670631504749</v>
+        <v>180.8195122562991</v>
       </c>
       <c r="G28" t="n">
-        <v>91.91670631504749</v>
+        <v>180.8195122562991</v>
       </c>
       <c r="H28" t="n">
-        <v>91.91670631504749</v>
+        <v>180.8195122562991</v>
       </c>
       <c r="I28" t="n">
-        <v>91.91670631504749</v>
+        <v>180.8195122562991</v>
       </c>
       <c r="J28" t="n">
-        <v>91.91670631504749</v>
+        <v>180.8195122562991</v>
       </c>
       <c r="K28" t="n">
-        <v>91.91670631504749</v>
+        <v>180.8195122562991</v>
       </c>
       <c r="L28" t="n">
-        <v>91.91670631504749</v>
+        <v>180.8195122562991</v>
       </c>
       <c r="M28" t="n">
-        <v>91.91670631504749</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="N28" t="n">
-        <v>91.91670631504749</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="O28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="P28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1625141760094</v>
+        <v>266.1625141760092</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9874698909795</v>
+        <v>243.9874698909793</v>
       </c>
       <c r="T28" t="n">
-        <v>233.6068558239875</v>
+        <v>233.6068558239874</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6757382032151</v>
+        <v>157.675738203215</v>
       </c>
       <c r="V28" t="n">
-        <v>125.732036525994</v>
+        <v>125.7320365259939</v>
       </c>
       <c r="W28" t="n">
-        <v>48.1300601973734</v>
+        <v>48.13006019737335</v>
       </c>
       <c r="X28" t="n">
-        <v>39.61015627389707</v>
+        <v>39.61015627389704</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91669941514206</v>
@@ -6440,37 +6440,37 @@
         <v>1020.89842248961</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7966579874103</v>
+        <v>882.7966579874101</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2538204942524</v>
+        <v>757.2538204942522</v>
       </c>
       <c r="E29" t="n">
-        <v>597.663758335025</v>
+        <v>597.6637583350248</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0329511471337</v>
+        <v>406.0329511471334</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6052517141564</v>
+        <v>198.6052517141562</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71974859844977</v>
+        <v>63.71974859844954</v>
       </c>
       <c r="I29" t="n">
         <v>35.91669941514206</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2527996589549</v>
+        <v>171.2527996589552</v>
       </c>
       <c r="K29" t="n">
-        <v>375.942782452878</v>
+        <v>375.9427824528782</v>
       </c>
       <c r="L29" t="n">
-        <v>634.0135279523986</v>
+        <v>634.0135279523993</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2253300581069</v>
+        <v>926.2253300581075</v>
       </c>
       <c r="N29" t="n">
         <v>1212.90312621256</v>
@@ -6516,34 +6516,34 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>530.6877358154518</v>
+        <v>55.81693727542483</v>
       </c>
       <c r="C30" t="n">
-        <v>530.6877358154518</v>
+        <v>55.81693727542483</v>
       </c>
       <c r="D30" t="n">
-        <v>369.9076195764835</v>
+        <v>55.81693727542483</v>
       </c>
       <c r="E30" t="n">
-        <v>196.344415697898</v>
+        <v>55.81693727542483</v>
       </c>
       <c r="F30" t="n">
-        <v>35.91669941514206</v>
+        <v>55.81693727542483</v>
       </c>
       <c r="G30" t="n">
-        <v>35.91669941514206</v>
+        <v>55.81693727542483</v>
       </c>
       <c r="H30" t="n">
-        <v>35.91669941514206</v>
+        <v>55.81693727542483</v>
       </c>
       <c r="I30" t="n">
-        <v>35.91669941514206</v>
+        <v>55.81693727542483</v>
       </c>
       <c r="J30" t="n">
         <v>35.91669941514206</v>
       </c>
       <c r="K30" t="n">
-        <v>73.88002543102243</v>
+        <v>73.8800254310224</v>
       </c>
       <c r="L30" t="n">
         <v>191.2129445593965</v>
@@ -6552,40 +6552,40 @@
         <v>372.8895911634019</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7945675741611</v>
+        <v>577.794567574161</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4955071931954</v>
+        <v>709.4955071931953</v>
       </c>
       <c r="P30" t="n">
-        <v>793.1206204512953</v>
+        <v>793.1206204512952</v>
       </c>
       <c r="Q30" t="n">
-        <v>793.1206204512953</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="R30" t="n">
-        <v>793.1206204512953</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="S30" t="n">
-        <v>793.1206204512953</v>
+        <v>786.1817761339607</v>
       </c>
       <c r="T30" t="n">
-        <v>791.6194355204981</v>
+        <v>784.6805912031635</v>
       </c>
       <c r="U30" t="n">
-        <v>767.6362850428338</v>
+        <v>760.6974407254993</v>
       </c>
       <c r="V30" t="n">
-        <v>740.1977290919235</v>
+        <v>733.258884774589</v>
       </c>
       <c r="W30" t="n">
-        <v>686.4403219676705</v>
+        <v>679.5014776503359</v>
       </c>
       <c r="X30" t="n">
-        <v>682.5734897298224</v>
+        <v>459.9934832670323</v>
       </c>
       <c r="Y30" t="n">
-        <v>672.5739588106056</v>
+        <v>234.3527902023599</v>
       </c>
     </row>
     <row r="31">
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91669941514206</v>
+        <v>52.68487474051341</v>
       </c>
       <c r="C31" t="n">
-        <v>35.91669941514206</v>
+        <v>52.68487474051341</v>
       </c>
       <c r="D31" t="n">
-        <v>35.91669941514206</v>
+        <v>52.68487474051341</v>
       </c>
       <c r="E31" t="n">
-        <v>35.91669941514206</v>
+        <v>52.68487474051341</v>
       </c>
       <c r="F31" t="n">
-        <v>35.91669941514206</v>
+        <v>126.4971643630122</v>
       </c>
       <c r="G31" t="n">
-        <v>35.91669941514206</v>
+        <v>170.8333002038923</v>
       </c>
       <c r="H31" t="n">
-        <v>35.91669941514206</v>
+        <v>218.0170495445334</v>
       </c>
       <c r="I31" t="n">
-        <v>35.91669941514206</v>
+        <v>266.162514176009</v>
       </c>
       <c r="J31" t="n">
-        <v>35.91669941514206</v>
+        <v>266.162514176009</v>
       </c>
       <c r="K31" t="n">
-        <v>35.91669941514206</v>
+        <v>266.162514176009</v>
       </c>
       <c r="L31" t="n">
-        <v>35.91669941514206</v>
+        <v>266.162514176009</v>
       </c>
       <c r="M31" t="n">
-        <v>35.91669941514206</v>
+        <v>266.162514176009</v>
       </c>
       <c r="N31" t="n">
-        <v>112.7064240684944</v>
+        <v>266.162514176009</v>
       </c>
       <c r="O31" t="n">
-        <v>112.7064240684944</v>
+        <v>266.162514176009</v>
       </c>
       <c r="P31" t="n">
         <v>266.162514176009</v>
@@ -6689,10 +6689,10 @@
         <v>403.2687994581614</v>
       </c>
       <c r="G32" t="n">
-        <v>196.6771705977749</v>
+        <v>196.6771705977754</v>
       </c>
       <c r="H32" t="n">
-        <v>62.62773805465898</v>
+        <v>62.62773805465901</v>
       </c>
       <c r="I32" t="n">
         <v>35.66075944394098</v>
@@ -6701,25 +6701,25 @@
         <v>171.8162924559494</v>
       </c>
       <c r="K32" t="n">
-        <v>377.325708018068</v>
+        <v>377.3257080180679</v>
       </c>
       <c r="L32" t="n">
-        <v>636.2158862857846</v>
+        <v>616.2999327831715</v>
       </c>
       <c r="M32" t="n">
-        <v>929.2471211596884</v>
+        <v>909.3311676570752</v>
       </c>
       <c r="N32" t="n">
-        <v>1216.744350082337</v>
+        <v>1196.828396579724</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.134320561962</v>
+        <v>1443.218367059348</v>
       </c>
       <c r="P32" t="n">
-        <v>1660.36260372134</v>
+        <v>1640.446650218727</v>
       </c>
       <c r="Q32" t="n">
-        <v>1783.037972197049</v>
+        <v>1763.801366338636</v>
       </c>
       <c r="R32" t="n">
         <v>1783.037972197049</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>491.8597450306756</v>
+        <v>304.5363649630477</v>
       </c>
       <c r="C33" t="n">
-        <v>491.8597450306756</v>
+        <v>304.5363649630477</v>
       </c>
       <c r="D33" t="n">
-        <v>491.8597450306756</v>
+        <v>304.5363649630477</v>
       </c>
       <c r="E33" t="n">
-        <v>454.7834401899436</v>
+        <v>304.5363649630477</v>
       </c>
       <c r="F33" t="n">
-        <v>294.3557239071877</v>
+        <v>144.1086486802919</v>
       </c>
       <c r="G33" t="n">
         <v>144.1086486802919</v>
@@ -6780,7 +6780,7 @@
         <v>35.66075944394098</v>
       </c>
       <c r="K33" t="n">
-        <v>73.62408545982134</v>
+        <v>73.62408545982132</v>
       </c>
       <c r="L33" t="n">
         <v>190.9570045881954</v>
@@ -6789,40 +6789,40 @@
         <v>372.6336511922008</v>
       </c>
       <c r="N33" t="n">
-        <v>577.53862760296</v>
+        <v>577.5386276029599</v>
       </c>
       <c r="O33" t="n">
-        <v>709.2395672219943</v>
+        <v>709.2395672219942</v>
       </c>
       <c r="P33" t="n">
-        <v>792.8646804800942</v>
+        <v>792.8646804800941</v>
       </c>
       <c r="Q33" t="n">
-        <v>785.9258361627598</v>
+        <v>785.9258361627597</v>
       </c>
       <c r="R33" t="n">
-        <v>785.9258361627598</v>
+        <v>649.8452293051055</v>
       </c>
       <c r="S33" t="n">
-        <v>785.9258361627598</v>
+        <v>649.8452293051055</v>
       </c>
       <c r="T33" t="n">
-        <v>785.2607218045526</v>
+        <v>649.1801149468984</v>
       </c>
       <c r="U33" t="n">
-        <v>762.1136418994785</v>
+        <v>626.0330350418242</v>
       </c>
       <c r="V33" t="n">
-        <v>735.5111565211582</v>
+        <v>599.4305496635039</v>
       </c>
       <c r="W33" t="n">
-        <v>682.5898199694952</v>
+        <v>330.0319803937953</v>
       </c>
       <c r="X33" t="n">
-        <v>679.5590583042373</v>
+        <v>313.6998253096744</v>
       </c>
       <c r="Y33" t="n">
-        <v>670.3955979576107</v>
+        <v>304.5363649630477</v>
       </c>
     </row>
     <row r="34">
@@ -6859,22 +6859,22 @@
         <v>35.66075944394098</v>
       </c>
       <c r="K34" t="n">
-        <v>35.66075944394098</v>
+        <v>64.23970020530911</v>
       </c>
       <c r="L34" t="n">
-        <v>35.66075944394098</v>
+        <v>64.23970020530911</v>
       </c>
       <c r="M34" t="n">
-        <v>35.66075944394098</v>
+        <v>64.23970020530911</v>
       </c>
       <c r="N34" t="n">
-        <v>35.66075944394098</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="O34" t="n">
-        <v>173.8295605137729</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="P34" t="n">
-        <v>173.8295605137729</v>
+        <v>260.0540801966771</v>
       </c>
       <c r="Q34" t="n">
         <v>260.0540801966771</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0190675361092</v>
+        <v>623.0190675361094</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0833815513515</v>
+        <v>544.0833815513517</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7066225756359</v>
+        <v>477.7066225756362</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2826389338506</v>
+        <v>377.2826389338509</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8179102634017</v>
+        <v>244.8179102634022</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55628934786677</v>
+        <v>96.55628934786678</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I35" t="n">
-        <v>51.57576979998704</v>
+        <v>51.57576979998703</v>
       </c>
       <c r="J35" t="n">
-        <v>51.57576979998704</v>
+        <v>244.9005435987449</v>
       </c>
       <c r="K35" t="n">
-        <v>309.4319710763154</v>
+        <v>244.9005435987449</v>
       </c>
       <c r="L35" t="n">
-        <v>356.1528135570755</v>
+        <v>291.621386079505</v>
       </c>
       <c r="M35" t="n">
-        <v>437.0147126440227</v>
+        <v>372.4832851664522</v>
       </c>
       <c r="N35" t="n">
-        <v>694.8709139203511</v>
+        <v>447.8111783021445</v>
       </c>
       <c r="O35" t="n">
-        <v>952.7271151966795</v>
+        <v>482.0318129948121</v>
       </c>
       <c r="P35" t="n">
-        <v>952.7271151966795</v>
+        <v>691.7193279795665</v>
       </c>
       <c r="Q35" t="n">
-        <v>952.7271151966795</v>
+        <v>872.2432848862247</v>
       </c>
       <c r="R35" t="n">
-        <v>1029.132961841842</v>
+        <v>948.6491315313875</v>
       </c>
       <c r="S35" t="n">
-        <v>1029.132961841842</v>
+        <v>992.7458834922298</v>
       </c>
       <c r="T35" t="n">
-        <v>1029.132961841842</v>
+        <v>1041.843237480115</v>
       </c>
       <c r="U35" t="n">
         <v>1041.843237480115</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5294845984138</v>
+        <v>992.529484598414</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0271658413449</v>
+        <v>926.0271658413451</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4175233782768</v>
+        <v>837.417523378277</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0777262447604</v>
+        <v>726.0777262447606</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>20.83686474960229</v>
+        <v>289.3083660846904</v>
       </c>
       <c r="C36" t="n">
-        <v>20.83686474960229</v>
+        <v>289.3083660846904</v>
       </c>
       <c r="D36" t="n">
-        <v>20.83686474960229</v>
+        <v>289.3083660846904</v>
       </c>
       <c r="E36" t="n">
-        <v>20.83686474960229</v>
+        <v>115.7451622061048</v>
       </c>
       <c r="F36" t="n">
-        <v>20.83686474960229</v>
+        <v>115.7451622061048</v>
       </c>
       <c r="G36" t="n">
-        <v>20.83686474960229</v>
+        <v>115.7451622061048</v>
       </c>
       <c r="H36" t="n">
-        <v>20.83686474960229</v>
+        <v>115.7451622061048</v>
       </c>
       <c r="I36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="K36" t="n">
-        <v>58.80019076548265</v>
+        <v>58.80019076548263</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1331098938568</v>
+        <v>176.1331098938567</v>
       </c>
       <c r="M36" t="n">
-        <v>357.8097564978622</v>
+        <v>357.8097564978621</v>
       </c>
       <c r="N36" t="n">
-        <v>562.7147329086214</v>
+        <v>562.7147329086212</v>
       </c>
       <c r="O36" t="n">
-        <v>694.4156725276557</v>
+        <v>694.4156725276555</v>
       </c>
       <c r="P36" t="n">
-        <v>778.0407857857556</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.1019414684212</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="R36" t="n">
-        <v>771.1019414684212</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="S36" t="n">
-        <v>771.1019414684212</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="T36" t="n">
-        <v>771.1019414684212</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="U36" t="n">
-        <v>771.1019414684212</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="V36" t="n">
-        <v>771.1019414684212</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="W36" t="n">
-        <v>644.5214051245134</v>
+        <v>514.9490591493627</v>
       </c>
       <c r="X36" t="n">
-        <v>425.0134107412097</v>
+        <v>514.9490591493627</v>
       </c>
       <c r="Y36" t="n">
-        <v>199.3727176765374</v>
+        <v>289.3083660846904</v>
       </c>
     </row>
     <row r="37">
@@ -7069,61 +7069,61 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="I37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="J37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="K37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="L37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="M37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="N37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="O37" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="P37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="Q37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="R37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="S37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="T37" t="n">
-        <v>56.03780166411086</v>
+        <v>56.03780166411087</v>
       </c>
       <c r="U37" t="n">
         <v>39.27276256078068</v>
@@ -7132,13 +7132,13 @@
         <v>39.27276256078068</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83686474960229</v>
+        <v>20.8368647496023</v>
       </c>
     </row>
     <row r="38">
@@ -7169,40 +7169,40 @@
         <v>20.83686474960229</v>
       </c>
       <c r="I38" t="n">
-        <v>20.83686474960229</v>
+        <v>51.57576979998702</v>
       </c>
       <c r="J38" t="n">
-        <v>214.1616385483602</v>
+        <v>51.57576979998702</v>
       </c>
       <c r="K38" t="n">
-        <v>472.0178398246886</v>
+        <v>178.5009941413882</v>
       </c>
       <c r="L38" t="n">
-        <v>729.8740411010169</v>
+        <v>225.2218366221483</v>
       </c>
       <c r="M38" t="n">
-        <v>932.2947096517545</v>
+        <v>306.0837357090954</v>
       </c>
       <c r="N38" t="n">
-        <v>1007.622602787447</v>
+        <v>381.4116288447877</v>
       </c>
       <c r="O38" t="n">
-        <v>1041.843237480115</v>
+        <v>415.6322635374554</v>
       </c>
       <c r="P38" t="n">
-        <v>1041.843237480115</v>
+        <v>670.0297874835835</v>
       </c>
       <c r="Q38" t="n">
-        <v>1041.843237480115</v>
+        <v>850.5537443902417</v>
       </c>
       <c r="R38" t="n">
-        <v>1041.843237480115</v>
+        <v>926.9595910354045</v>
       </c>
       <c r="S38" t="n">
-        <v>1041.843237480115</v>
+        <v>971.0563429962468</v>
       </c>
       <c r="T38" t="n">
-        <v>1041.843237480115</v>
+        <v>1020.153696984132</v>
       </c>
       <c r="U38" t="n">
         <v>1041.843237480115</v>
@@ -7227,22 +7227,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>337.2547194063094</v>
+        <v>705.0201754169483</v>
       </c>
       <c r="C39" t="n">
-        <v>147.8424451392731</v>
+        <v>515.607901149912</v>
       </c>
       <c r="D39" t="n">
-        <v>147.8424451392731</v>
+        <v>354.8277849109437</v>
       </c>
       <c r="E39" t="n">
-        <v>147.8424451392731</v>
+        <v>181.2645810323582</v>
       </c>
       <c r="F39" t="n">
-        <v>147.8424451392731</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="G39" t="n">
-        <v>147.8424451392731</v>
+        <v>20.83686474960229</v>
       </c>
       <c r="H39" t="n">
         <v>20.83686474960229</v>
@@ -7254,49 +7254,49 @@
         <v>20.83686474960229</v>
       </c>
       <c r="K39" t="n">
-        <v>58.80019076548265</v>
+        <v>58.80019076548263</v>
       </c>
       <c r="L39" t="n">
-        <v>176.1331098938568</v>
+        <v>176.1331098938567</v>
       </c>
       <c r="M39" t="n">
-        <v>357.8097564978622</v>
+        <v>357.8097564978621</v>
       </c>
       <c r="N39" t="n">
-        <v>562.7147329086214</v>
+        <v>562.7147329086212</v>
       </c>
       <c r="O39" t="n">
-        <v>694.4156725276557</v>
+        <v>694.4156725276555</v>
       </c>
       <c r="P39" t="n">
-        <v>778.0407857857556</v>
+        <v>778.0407857857554</v>
       </c>
       <c r="Q39" t="n">
-        <v>771.1019414684212</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="R39" t="n">
-        <v>771.1019414684212</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="S39" t="n">
-        <v>771.1019414684212</v>
+        <v>771.1019414684209</v>
       </c>
       <c r="T39" t="n">
-        <v>771.1019414684212</v>
+        <v>705.0201754169483</v>
       </c>
       <c r="U39" t="n">
-        <v>771.1019414684212</v>
+        <v>705.0201754169483</v>
       </c>
       <c r="V39" t="n">
-        <v>735.2985667165481</v>
+        <v>705.0201754169483</v>
       </c>
       <c r="W39" t="n">
-        <v>735.2985667165481</v>
+        <v>705.0201754169483</v>
       </c>
       <c r="X39" t="n">
-        <v>515.7905723332444</v>
+        <v>705.0201754169483</v>
       </c>
       <c r="Y39" t="n">
-        <v>515.7905723332444</v>
+        <v>705.0201754169483</v>
       </c>
     </row>
     <row r="40">
@@ -7327,22 +7327,22 @@
         <v>20.83686474960229</v>
       </c>
       <c r="I40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="J40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="K40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="L40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="M40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="N40" t="n">
-        <v>20.83686474960229</v>
+        <v>56.03780166411086</v>
       </c>
       <c r="O40" t="n">
         <v>56.03780166411086</v>
@@ -7409,34 +7409,34 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06597548400537</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="K41" t="n">
-        <v>260.0057267824887</v>
+        <v>422.5915955308618</v>
       </c>
       <c r="L41" t="n">
-        <v>306.7265692632488</v>
+        <v>707.9121095349432</v>
       </c>
       <c r="M41" t="n">
-        <v>626.1881398735173</v>
+        <v>788.7740086218904</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5160330092097</v>
+        <v>864.1019017575827</v>
       </c>
       <c r="O41" t="n">
-        <v>974.3363392251986</v>
+        <v>952.4718660055157</v>
       </c>
       <c r="P41" t="n">
-        <v>1197.994958120942</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q41" t="n">
-        <v>1347.780009977215</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R41" t="n">
-        <v>1393.446951571993</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S41" t="n">
-        <v>1393.446951571993</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T41" t="n">
         <v>1403.298774200268</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>330.3966300061805</v>
+        <v>87.31691190981434</v>
       </c>
       <c r="C42" t="n">
-        <v>330.3966300061805</v>
+        <v>87.31691190981434</v>
       </c>
       <c r="D42" t="n">
-        <v>169.6165137672122</v>
+        <v>87.31691190981434</v>
       </c>
       <c r="E42" t="n">
-        <v>169.6165137672122</v>
+        <v>87.31691190981434</v>
       </c>
       <c r="F42" t="n">
-        <v>169.6165137672122</v>
+        <v>87.31691190981434</v>
       </c>
       <c r="G42" t="n">
-        <v>169.6165137672122</v>
+        <v>81.07119809400801</v>
       </c>
       <c r="H42" t="n">
-        <v>42.6109333775414</v>
+        <v>81.07119809400801</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06597548400537</v>
+        <v>81.07119809400801</v>
       </c>
       <c r="J42" t="n">
         <v>28.06597548400537</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02930149988573</v>
+        <v>66.0293014998857</v>
       </c>
       <c r="L42" t="n">
         <v>183.3622206282598</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0388672322652</v>
+        <v>365.0388672322651</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9438436430244</v>
+        <v>569.9438436430243</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6447832620588</v>
+        <v>701.6447832620586</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2698965201587</v>
+        <v>785.2698965201585</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.3310522028243</v>
+        <v>778.331052202824</v>
       </c>
       <c r="R42" t="n">
-        <v>778.3310522028243</v>
+        <v>778.331052202824</v>
       </c>
       <c r="S42" t="n">
-        <v>778.3310522028243</v>
+        <v>778.331052202824</v>
       </c>
       <c r="T42" t="n">
-        <v>778.3310522028243</v>
+        <v>778.331052202824</v>
       </c>
       <c r="U42" t="n">
-        <v>778.3310522028243</v>
+        <v>778.331052202824</v>
       </c>
       <c r="V42" t="n">
-        <v>778.3310522028243</v>
+        <v>535.2513341064581</v>
       </c>
       <c r="W42" t="n">
-        <v>508.9324829331156</v>
+        <v>265.8527648367494</v>
       </c>
       <c r="X42" t="n">
-        <v>508.9324829331156</v>
+        <v>265.8527648367494</v>
       </c>
       <c r="Y42" t="n">
-        <v>508.9324829331156</v>
+        <v>265.8527648367494</v>
       </c>
     </row>
     <row r="43">
@@ -7576,16 +7576,16 @@
         <v>28.06597548400537</v>
       </c>
       <c r="M43" t="n">
-        <v>28.06597548400537</v>
+        <v>130.133623560695</v>
       </c>
       <c r="N43" t="n">
-        <v>28.06597548400537</v>
+        <v>130.133623560695</v>
       </c>
       <c r="O43" t="n">
-        <v>28.06597548400537</v>
+        <v>130.133623560695</v>
       </c>
       <c r="P43" t="n">
-        <v>28.06597548400537</v>
+        <v>130.133623560695</v>
       </c>
       <c r="Q43" t="n">
         <v>130.133623560695</v>
@@ -7646,34 +7646,34 @@
         <v>28.06597548400537</v>
       </c>
       <c r="J44" t="n">
-        <v>28.06597548400537</v>
+        <v>190.6518442323785</v>
       </c>
       <c r="K44" t="n">
-        <v>260.0057267824887</v>
+        <v>422.5915955308618</v>
       </c>
       <c r="L44" t="n">
-        <v>453.0055968373395</v>
+        <v>707.9121095349432</v>
       </c>
       <c r="M44" t="n">
-        <v>772.4671674476081</v>
+        <v>788.7740086218904</v>
       </c>
       <c r="N44" t="n">
-        <v>1086.394732106622</v>
+        <v>918.2512313128481</v>
       </c>
       <c r="O44" t="n">
-        <v>1120.615366799289</v>
+        <v>952.4718660055157</v>
       </c>
       <c r="P44" t="n">
-        <v>1344.273985695033</v>
+        <v>1176.130484901259</v>
       </c>
       <c r="Q44" t="n">
-        <v>1344.273985695033</v>
+        <v>1325.915536757532</v>
       </c>
       <c r="R44" t="n">
-        <v>1389.940927289811</v>
+        <v>1371.582478352311</v>
       </c>
       <c r="S44" t="n">
-        <v>1403.298774200268</v>
+        <v>1384.940325262768</v>
       </c>
       <c r="T44" t="n">
         <v>1403.298774200268</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>712.2492861513514</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="C45" t="n">
-        <v>522.8370118843151</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="D45" t="n">
-        <v>362.0568956453468</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="E45" t="n">
-        <v>188.4936917667613</v>
+        <v>28.06597548400537</v>
       </c>
       <c r="F45" t="n">
         <v>28.06597548400537</v>
@@ -7728,49 +7728,49 @@
         <v>28.06597548400537</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02930149988573</v>
+        <v>66.0293014998857</v>
       </c>
       <c r="L45" t="n">
         <v>183.3622206282598</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0388672322652</v>
+        <v>365.0388672322651</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9438436430244</v>
+        <v>569.9438436430243</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6447832620588</v>
+        <v>701.6447832620586</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2698965201587</v>
+        <v>785.2698965201585</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.3310522028243</v>
+        <v>778.331052202824</v>
       </c>
       <c r="R45" t="n">
-        <v>778.3310522028243</v>
+        <v>778.331052202824</v>
       </c>
       <c r="S45" t="n">
-        <v>778.3310522028243</v>
+        <v>778.331052202824</v>
       </c>
       <c r="T45" t="n">
-        <v>778.3310522028243</v>
+        <v>778.331052202824</v>
       </c>
       <c r="U45" t="n">
-        <v>778.3310522028243</v>
+        <v>778.331052202824</v>
       </c>
       <c r="V45" t="n">
-        <v>778.3310522028243</v>
+        <v>535.2513341064581</v>
       </c>
       <c r="W45" t="n">
-        <v>752.3766942618793</v>
+        <v>265.8527648367494</v>
       </c>
       <c r="X45" t="n">
-        <v>752.3766942618793</v>
+        <v>46.34477045344579</v>
       </c>
       <c r="Y45" t="n">
-        <v>752.3766942618793</v>
+        <v>28.06597548400537</v>
       </c>
     </row>
     <row r="46">
@@ -7789,40 +7789,40 @@
         <v>28.06597548400537</v>
       </c>
       <c r="E46" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="F46" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="G46" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="H46" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="I46" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="J46" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="K46" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="L46" t="n">
-        <v>28.06597548400537</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="M46" t="n">
-        <v>130.133623560695</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="N46" t="n">
-        <v>130.133623560695</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="O46" t="n">
-        <v>130.133623560695</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="P46" t="n">
-        <v>130.133623560695</v>
+        <v>126.4062672072239</v>
       </c>
       <c r="Q46" t="n">
         <v>130.133623560695</v>
@@ -8535,19 +8535,19 @@
         <v>171.3658051887314</v>
       </c>
       <c r="L9" t="n">
-        <v>169.0363433314465</v>
+        <v>172.23559297146</v>
       </c>
       <c r="M9" t="n">
         <v>176.6027710248758</v>
       </c>
       <c r="N9" t="n">
-        <v>160.2368887416667</v>
+        <v>163.3068757699624</v>
       </c>
       <c r="O9" t="n">
-        <v>177.037405250518</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P9" t="n">
-        <v>166.6480266854964</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8769,7 +8769,7 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>171.373473584151</v>
+        <v>171.3734735841509</v>
       </c>
       <c r="L12" t="n">
         <v>240.3045437566416</v>
@@ -9012,7 +9012,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M15" t="n">
-        <v>301.77688131</v>
+        <v>301.7768813099999</v>
       </c>
       <c r="N15" t="n">
         <v>292.1370682466383</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1370682466381</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -9486,7 +9486,7 @@
         <v>240.3045437566416</v>
       </c>
       <c r="M21" t="n">
-        <v>301.7768813099999</v>
+        <v>301.77688131</v>
       </c>
       <c r="N21" t="n">
         <v>292.1370682466383</v>
@@ -9726,13 +9726,13 @@
         <v>301.77688131</v>
       </c>
       <c r="N24" t="n">
-        <v>292.1370682466384</v>
+        <v>292.1370682466383</v>
       </c>
       <c r="O24" t="n">
         <v>255.2227828913207</v>
       </c>
       <c r="P24" t="n">
-        <v>206.3638740786794</v>
+        <v>206.3638740786793</v>
       </c>
       <c r="Q24" t="n">
         <v>136.1300824528302</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.9389762247655</v>
+        <v>195.9389762247654</v>
       </c>
       <c r="C11" t="n">
-        <v>129.9406570989767</v>
+        <v>172.0572332281109</v>
       </c>
       <c r="D11" t="n">
         <v>159.6238954891594</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3306479085683</v>
+        <v>4.832714589321199</v>
       </c>
       <c r="F11" t="n">
-        <v>36.55305216769847</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G11" t="n">
-        <v>52.19197549033353</v>
+        <v>240.6899088095807</v>
       </c>
       <c r="H11" t="n">
-        <v>168.8731344554827</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>13.86321888890084</v>
       </c>
       <c r="S11" t="n">
-        <v>49.36873040538033</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00227733958189</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>159.748199672699</v>
       </c>
       <c r="X11" t="n">
-        <v>181.6344501416383</v>
+        <v>181.6344501416382</v>
       </c>
       <c r="Y11" t="n">
-        <v>15.63936994613488</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="12">
@@ -23498,22 +23498,22 @@
         <v>172.057233228111</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6238954891595</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>4.832714589321228</v>
       </c>
       <c r="F14" t="n">
-        <v>36.55305216769855</v>
+        <v>225.0509854869456</v>
       </c>
       <c r="G14" t="n">
-        <v>240.6899088095807</v>
+        <v>112.250712916526</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8731344554828</v>
+        <v>168.8731344554827</v>
       </c>
       <c r="I14" t="n">
-        <v>62.86150506240824</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23540,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.73328122929905</v>
+        <v>16.73328122929901</v>
       </c>
       <c r="S14" t="n">
-        <v>49.36873040538035</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.31761724675147</v>
+        <v>44.3176172467514</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00227733958195</v>
+        <v>72.00227733958189</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7315194560842</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7481996726991</v>
+        <v>159.748199672699</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>181.6344501416383</v>
       </c>
       <c r="Y14" t="n">
-        <v>31.24484042018042</v>
+        <v>204.137303265382</v>
       </c>
     </row>
     <row r="15">
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1205015.553300327</v>
+        <v>1205015.553300326</v>
       </c>
     </row>
     <row r="7">
@@ -26314,19 +26314,19 @@
         <v>198434.6989147034</v>
       </c>
       <c r="C2" t="n">
-        <v>198434.6989147035</v>
+        <v>198434.6989147034</v>
       </c>
       <c r="D2" t="n">
-        <v>198549.2960368088</v>
+        <v>198549.2960368087</v>
       </c>
       <c r="E2" t="n">
         <v>170940.4714685552</v>
       </c>
       <c r="F2" t="n">
-        <v>170940.4714685552</v>
+        <v>170940.4714685551</v>
       </c>
       <c r="G2" t="n">
-        <v>198836.6734931706</v>
+        <v>198836.6734931705</v>
       </c>
       <c r="H2" t="n">
         <v>198836.6734931706</v>
@@ -26335,7 +26335,7 @@
         <v>198836.6734931706</v>
       </c>
       <c r="J2" t="n">
-        <v>198836.6734931707</v>
+        <v>198836.6734931705</v>
       </c>
       <c r="K2" t="n">
         <v>198836.6734931706</v>
@@ -26344,7 +26344,7 @@
         <v>198836.6734931704</v>
       </c>
       <c r="M2" t="n">
-        <v>198836.6734931706</v>
+        <v>198836.6734931705</v>
       </c>
       <c r="N2" t="n">
         <v>198836.6734931706</v>
@@ -26372,37 +26372,37 @@
         <v>993.7829156773863</v>
       </c>
       <c r="E3" t="n">
-        <v>279126.1151787142</v>
+        <v>279126.1151787141</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95439.52541913329</v>
+        <v>95439.52541913325</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143496.2830068792</v>
+        <v>143496.2830068793</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96101.69331262466</v>
+        <v>96101.69331262461</v>
       </c>
       <c r="M3" t="n">
-        <v>46197.36629232284</v>
+        <v>46197.3662923228</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72254.91485924376</v>
+        <v>72254.91485924386</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>424861.9413331364</v>
       </c>
       <c r="E4" t="n">
-        <v>313625.6347290154</v>
+        <v>313625.6347290155</v>
       </c>
       <c r="F4" t="n">
         <v>313625.6347290154</v>
       </c>
       <c r="G4" t="n">
-        <v>384233.5027722372</v>
+        <v>384233.5027722373</v>
       </c>
       <c r="H4" t="n">
         <v>384233.5027722373</v>
@@ -26448,10 +26448,10 @@
         <v>385065.6665564733</v>
       </c>
       <c r="M4" t="n">
-        <v>384255.7291831548</v>
+        <v>384255.7291831549</v>
       </c>
       <c r="N4" t="n">
-        <v>384255.7291831548</v>
+        <v>384255.7291831549</v>
       </c>
       <c r="O4" t="n">
         <v>384642.7918468725</v>
@@ -26476,13 +26476,13 @@
         <v>33822.11437811282</v>
       </c>
       <c r="E5" t="n">
-        <v>28642.95693774779</v>
+        <v>28642.95693774778</v>
       </c>
       <c r="F5" t="n">
         <v>28642.95693774778</v>
       </c>
       <c r="G5" t="n">
-        <v>38672.33876582418</v>
+        <v>38672.33876582417</v>
       </c>
       <c r="H5" t="n">
         <v>38672.33876582418</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-260138.5334793719</v>
+        <v>-260142.9998635771</v>
       </c>
       <c r="C6" t="n">
-        <v>-260138.5334793718</v>
+        <v>-260142.9998635771</v>
       </c>
       <c r="D6" t="n">
-        <v>-261128.5425901178</v>
+        <v>-261131.7356729664</v>
       </c>
       <c r="E6" t="n">
-        <v>-450454.2353769222</v>
+        <v>-450764.1931771957</v>
       </c>
       <c r="F6" t="n">
-        <v>-171328.1201982079</v>
+        <v>-171638.0779984815</v>
       </c>
       <c r="G6" t="n">
-        <v>-319508.6934640241</v>
+        <v>-319508.6934640242</v>
       </c>
       <c r="H6" t="n">
         <v>-224069.1680448909</v>
@@ -26543,22 +26543,22 @@
         <v>-224069.1680448908</v>
       </c>
       <c r="J6" t="n">
-        <v>-377189.743257724</v>
+        <v>-377189.7432577243</v>
       </c>
       <c r="K6" t="n">
-        <v>-233693.4602508448</v>
+        <v>-233693.4602508449</v>
       </c>
       <c r="L6" t="n">
         <v>-329655.4339587756</v>
       </c>
       <c r="M6" t="n">
-        <v>-272529.7175809943</v>
+        <v>-272529.7175809945</v>
       </c>
       <c r="N6" t="n">
-        <v>-226332.3512886714</v>
+        <v>-226332.3512886716</v>
       </c>
       <c r="O6" t="n">
-        <v>-301858.1610418189</v>
+        <v>-301858.161041819</v>
       </c>
       <c r="P6" t="n">
         <v>-229603.2461825751</v>
@@ -26695,16 +26695,16 @@
         <v>178.1482641530679</v>
       </c>
       <c r="F2" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G2" t="n">
         <v>297.4476709269844</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J2" t="n">
         <v>213.484750524001</v>
@@ -26796,7 +26796,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="F4" t="n">
         <v>188.4979333192471</v>
@@ -26808,7 +26808,7 @@
         <v>188.4979333192471</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="J4" t="n">
         <v>448.9587426892758</v>
@@ -26820,7 +26820,7 @@
         <v>445.7594930492623</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4608093700286</v>
+        <v>260.4608093700287</v>
       </c>
       <c r="N4" t="n">
         <v>260.4608093700286</v>
@@ -26923,13 +26923,13 @@
         <v>119.2994067739166</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008446</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.1271166407808</v>
       </c>
       <c r="M2" t="n">
-        <v>57.74670786540355</v>
+        <v>57.74670786540349</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13594470929166</v>
+        <v>63.13594470929178</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="E4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4608093700285</v>
+        <v>260.4608093700286</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>119.2994067739166</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.18534375008434</v>
+        <v>94.18534375008446</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>3.199249640013477</v>
       </c>
       <c r="M4" t="n">
-        <v>185.2986836792337</v>
+        <v>185.2986836792336</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
-        <v>220.5600315087396</v>
+        <v>220.4301160555486</v>
       </c>
       <c r="S8" t="n">
         <v>236.785106778059</v>
@@ -27913,7 +27913,7 @@
         <v>320.879783609152</v>
       </c>
       <c r="W8" t="n">
-        <v>337.8964638257669</v>
+        <v>338.0263792789579</v>
       </c>
       <c r="X8" t="n">
         <v>359.7827142947061</v>
@@ -27944,13 +27944,13 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G9" t="n">
-        <v>146.144319312168</v>
+        <v>148.9622183950918</v>
       </c>
       <c r="H9" t="n">
-        <v>124.6379672828833</v>
+        <v>127.8372169228968</v>
       </c>
       <c r="I9" t="n">
-        <v>111.6565698077035</v>
+        <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
         <v>73.03491363274843</v>
@@ -27986,13 +27986,13 @@
         <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
-        <v>237.2423862021824</v>
+        <v>234.0431365621689</v>
       </c>
       <c r="V9" t="n">
-        <v>240.6489209154022</v>
+        <v>237.4496712753888</v>
       </c>
       <c r="W9" t="n">
-        <v>266.7045835770116</v>
+        <v>263.8866844940877</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
@@ -28114,22 +28114,22 @@
         <v>178.1482641530679</v>
       </c>
       <c r="K11" t="n">
-        <v>6.727192146300979</v>
+        <v>6.727192146301022</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M11" t="n">
         <v>106.8192473728358</v>
       </c>
       <c r="N11" t="n">
-        <v>47.17040894064257</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>178.1482641530679</v>
+        <v>84.01350995704931</v>
       </c>
       <c r="Q11" t="n">
         <v>178.1482641530679</v>
@@ -28178,19 +28178,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I12" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J12" t="n">
-        <v>52.4751703839026</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28217,7 +28217,7 @@
         <v>134.7198007890777</v>
       </c>
       <c r="S12" t="n">
-        <v>92.22643189571345</v>
+        <v>152.7378329450474</v>
       </c>
       <c r="T12" t="n">
         <v>178.1482641530679</v>
@@ -28232,10 +28232,10 @@
         <v>178.1482641530679</v>
       </c>
       <c r="X12" t="n">
-        <v>178.1482641530679</v>
+        <v>28.81498112022354</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.1482641530679</v>
+        <v>34.88635281477855</v>
       </c>
     </row>
     <row r="13">
@@ -28251,10 +28251,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.1482641530679</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
-        <v>155.210646595526</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28269,19 +28269,19 @@
         <v>164.852968067965</v>
       </c>
       <c r="J13" t="n">
+        <v>120.239607582909</v>
+      </c>
+      <c r="K13" t="n">
+        <v>67.02998013919</v>
+      </c>
+      <c r="L13" t="n">
+        <v>129.6256412547104</v>
+      </c>
+      <c r="M13" t="n">
         <v>178.1482641530679</v>
       </c>
-      <c r="K13" t="n">
-        <v>67.02998013918997</v>
-      </c>
-      <c r="L13" t="n">
-        <v>178.1482641530679</v>
-      </c>
-      <c r="M13" t="n">
-        <v>25.21686539889345</v>
-      </c>
       <c r="N13" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O13" t="n">
         <v>178.1482641530679</v>
@@ -28324,37 +28324,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="C14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="I14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="J14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="K14" t="n">
-        <v>6.785212809893746</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3051631366612</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28363,37 +28363,37 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>153.9316356498858</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>178.1482641530678</v>
+        <v>19.41168532311821</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="15">
@@ -28406,7 +28406,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
@@ -28451,28 +28451,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S15" t="n">
-        <v>173.0107035160595</v>
+        <v>152.7378329450476</v>
       </c>
       <c r="T15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W15" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X15" t="n">
-        <v>178.1482641530678</v>
+        <v>28.81498112022354</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.1482641530678</v>
+        <v>34.88635281477855</v>
       </c>
     </row>
     <row r="16">
@@ -28488,16 +28488,16 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="E16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="F16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="G16" t="n">
-        <v>168.7007749271525</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="H16" t="n">
         <v>165.8243976546666</v>
@@ -28509,49 +28509,49 @@
         <v>120.239607582909</v>
       </c>
       <c r="K16" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M16" t="n">
-        <v>125.0045288508115</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="O16" t="n">
-        <v>178.1482641530678</v>
+        <v>97.88749493687212</v>
       </c>
       <c r="P16" t="n">
-        <v>58.47859890024888</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Q16" t="n">
-        <v>127.2169859636892</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="R16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="S16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="T16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="U16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="V16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="W16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="X16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.1482641530678</v>
+        <v>178.1482641530679</v>
       </c>
     </row>
     <row r="17">
@@ -28588,7 +28588,7 @@
         <v>265.2795522838412</v>
       </c>
       <c r="K17" t="n">
-        <v>6.727192146300979</v>
+        <v>43.79543302900523</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28603,13 +28603,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.09197235108877</v>
+        <v>15.09197235108882</v>
       </c>
       <c r="Q17" t="n">
-        <v>276.6432328990784</v>
+        <v>89.71173703742201</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8815453823669</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S17" t="n">
         <v>227.5169945584482</v>
@@ -28618,7 +28618,7 @@
         <v>297.4476709269844</v>
       </c>
       <c r="U17" t="n">
-        <v>250.1505414926498</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V17" t="n">
         <v>297.4476709269844</v>
@@ -28643,25 +28643,25 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446044746268</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28697,19 +28697,19 @@
         <v>214.9709236054903</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280694968886</v>
+        <v>48.73013617764155</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>249.7334972371411</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>28.81498112022348</v>
+        <v>28.81498112022354</v>
       </c>
       <c r="Y18" t="n">
-        <v>223.3842861340256</v>
+        <v>76.94660387987633</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K19" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M19" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O19" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P19" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2169859636892</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4476709269845</v>
+        <v>241.0097692154761</v>
       </c>
       <c r="J20" t="n">
-        <v>76.78161896459406</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K20" t="n">
-        <v>6.727192146300979</v>
+        <v>6.727192146301022</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,34 +28840,34 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>15.09197235108877</v>
+        <v>38.66743857676515</v>
       </c>
       <c r="Q20" t="n">
-        <v>245.3472348708368</v>
+        <v>278.2096703566691</v>
       </c>
       <c r="R20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="21">
@@ -28880,10 +28880,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E21" t="n">
         <v>171.8275718397997</v>
@@ -28940,13 +28940,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>266.7045835770116</v>
+        <v>78.20665025776449</v>
       </c>
       <c r="X21" t="n">
-        <v>217.3129144394706</v>
+        <v>215.6738676197004</v>
       </c>
       <c r="Y21" t="n">
-        <v>191.4398392767055</v>
+        <v>34.88635281477852</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K22" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M22" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O22" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P22" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2169859636892</v>
@@ -29035,34 +29035,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="I23" t="n">
-        <v>248.5841040350591</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="J23" t="n">
-        <v>265.2795522838413</v>
+        <v>76.78161896459409</v>
       </c>
       <c r="K23" t="n">
-        <v>6.727192146300979</v>
+        <v>6.727192146301022</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,34 +29077,34 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.09197235108877</v>
+        <v>15.09197235108882</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2096703566692</v>
+        <v>245.3472348708376</v>
       </c>
       <c r="R23" t="n">
-        <v>194.8815453823669</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="S23" t="n">
-        <v>227.5169945584482</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="T23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="U23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4476709269845</v>
+        <v>297.4476709269844</v>
       </c>
     </row>
     <row r="24">
@@ -29117,7 +29117,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29129,16 +29129,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H24" t="n">
         <v>125.7355245857741</v>
       </c>
       <c r="I24" t="n">
-        <v>30.44313777855</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J24" t="n">
-        <v>52.4751703839026</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29162,7 +29162,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>134.7198007890777</v>
       </c>
       <c r="S24" t="n">
         <v>191.5907913200043</v>
@@ -29174,13 +29174,13 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>122.2171285842918</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.20665025776449</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.81498112022351</v>
       </c>
       <c r="Y24" t="n">
         <v>223.3842861340256</v>
@@ -29220,22 +29220,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K25" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M25" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O25" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P25" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2169859636892</v>
@@ -29296,7 +29296,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="J26" t="n">
-        <v>213.484750524001</v>
+        <v>213.4847505240011</v>
       </c>
       <c r="K26" t="n">
         <v>213.484750524001</v>
@@ -29308,7 +29308,7 @@
         <v>213.484750524001</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4847505240012</v>
+        <v>213.484750524001</v>
       </c>
       <c r="O26" t="n">
         <v>213.484750524001</v>
@@ -29351,31 +29351,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.28313363246389</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H27" t="n">
-        <v>125.7355245857741</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>107.3634103439874</v>
+        <v>36.64720505041603</v>
       </c>
       <c r="J27" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.869455874161044</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>134.7198007890777</v>
@@ -29411,13 +29411,13 @@
         <v>213.484750524001</v>
       </c>
       <c r="V27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>213.484750524001</v>
       </c>
       <c r="X27" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>213.484750524001</v>
@@ -29439,10 +29439,10 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
-        <v>198.241804747483</v>
+        <v>213.484750524001</v>
       </c>
       <c r="F28" t="n">
-        <v>138.9268822184467</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G28" t="n">
         <v>168.7007749271525</v>
@@ -29457,22 +29457,22 @@
         <v>120.239607582909</v>
       </c>
       <c r="K28" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L28" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M28" t="n">
-        <v>25.21686539889345</v>
+        <v>111.421917843045</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O28" t="n">
-        <v>213.484750524001</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P28" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2169859636892</v>
@@ -29588,19 +29588,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36.28313363246343</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7446044746268</v>
@@ -29612,7 +29612,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J30" t="n">
-        <v>52.4751703839026</v>
+        <v>32.77393490222267</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.869455874161044</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>134.7198007890777</v>
@@ -29654,10 +29654,10 @@
         <v>213.484750524001</v>
       </c>
       <c r="X30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>213.484750524001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -29667,7 +29667,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>194.5544714986765</v>
       </c>
       <c r="C31" t="n">
         <v>166.4571809719723</v>
@@ -29679,37 +29679,37 @@
         <v>141.676141212225</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>213.484750524001</v>
       </c>
       <c r="G31" t="n">
-        <v>168.7007749271525</v>
+        <v>213.484750524001</v>
       </c>
       <c r="H31" t="n">
-        <v>165.8243976546666</v>
+        <v>213.484750524001</v>
       </c>
       <c r="I31" t="n">
-        <v>164.852968067965</v>
+        <v>213.484750524001</v>
       </c>
       <c r="J31" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K31" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M31" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N31" t="n">
-        <v>94.08553580701094</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O31" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P31" t="n">
-        <v>213.484750524001</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q31" t="n">
         <v>127.2169859636892</v>
@@ -29776,7 +29776,7 @@
         <v>214.3124603908652</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3124603908652</v>
+        <v>194.195335640751</v>
       </c>
       <c r="M32" t="n">
         <v>214.3124603908652</v>
@@ -29791,10 +29791,10 @@
         <v>214.3124603908652</v>
       </c>
       <c r="Q32" t="n">
-        <v>213.6262506492491</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="R32" t="n">
-        <v>194.8815453823669</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="S32" t="n">
         <v>214.3124603908652</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29834,13 +29834,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
-        <v>135.122030047475</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7446044746268</v>
       </c>
       <c r="H33" t="n">
         <v>125.7355245857741</v>
@@ -29849,7 +29849,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29873,7 +29873,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>134.7198007890777</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>191.5907913200043</v>
@@ -29888,10 +29888,10 @@
         <v>214.3124603908652</v>
       </c>
       <c r="W33" t="n">
-        <v>214.3124603908652</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3124603908652</v>
+        <v>201.1440809061909</v>
       </c>
       <c r="Y33" t="n">
         <v>214.3124603908652</v>
@@ -29931,25 +29931,25 @@
         <v>120.239607582909</v>
       </c>
       <c r="K34" t="n">
-        <v>67.02998013918997</v>
+        <v>95.89759706986487</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M34" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52015736928135</v>
+        <v>214.3124603908652</v>
       </c>
       <c r="O34" t="n">
-        <v>177.0433295228596</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P34" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q34" t="n">
-        <v>214.3124603908652</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R34" t="n">
         <v>203.4299611556341</v>
@@ -30007,10 +30007,10 @@
         <v>272.0591682562687</v>
       </c>
       <c r="J35" t="n">
-        <v>76.78161896459406</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="K35" t="n">
-        <v>267.1880015163296</v>
+        <v>6.727192146301022</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -30019,28 +30019,28 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>184.3720284248849</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8945117006673</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>15.09197235108877</v>
+        <v>226.8975430427599</v>
       </c>
       <c r="Q35" t="n">
-        <v>89.71173703742198</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R35" t="n">
         <v>272.0591682562687</v>
       </c>
       <c r="S35" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4658813998193</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U35" t="n">
-        <v>262.9892037535307</v>
+        <v>250.1505414926498</v>
       </c>
       <c r="V35" t="n">
         <v>272.0591682562687</v>
@@ -30062,7 +30062,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
@@ -30071,7 +30071,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30083,10 +30083,10 @@
         <v>125.7355245857741</v>
       </c>
       <c r="I36" t="n">
-        <v>107.3634103439874</v>
+        <v>13.40419586204986</v>
       </c>
       <c r="J36" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.869455874161069</v>
       </c>
       <c r="R36" t="n">
         <v>134.7198007890777</v>
@@ -30125,10 +30125,10 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>141.3898525965429</v>
+        <v>6.243774206982891</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -30165,25 +30165,25 @@
         <v>164.852968067965</v>
       </c>
       <c r="J37" t="n">
-        <v>120.239607582909</v>
+        <v>155.796109516756</v>
       </c>
       <c r="K37" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M37" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O37" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P37" t="n">
-        <v>94.03510083409591</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2169859636892</v>
@@ -30241,43 +30241,43 @@
         <v>272.0591682562687</v>
       </c>
       <c r="I38" t="n">
-        <v>241.009769215476</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="J38" t="n">
+        <v>76.78161896459409</v>
+      </c>
+      <c r="K38" t="n">
+        <v>134.9344894608477</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
         <v>272.0591682562687</v>
       </c>
-      <c r="K38" t="n">
-        <v>267.1880015163296</v>
-      </c>
-      <c r="L38" t="n">
-        <v>213.2680391874427</v>
-      </c>
-      <c r="M38" t="n">
-        <v>122.7866358220104</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>15.09197235108877</v>
-      </c>
       <c r="Q38" t="n">
-        <v>89.71173703742198</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="R38" t="n">
-        <v>194.8815453823669</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="S38" t="n">
-        <v>227.5169945584482</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="T38" t="n">
-        <v>222.4658813998193</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="U38" t="n">
-        <v>250.1505414926498</v>
+        <v>272.0591682562687</v>
       </c>
       <c r="V38" t="n">
         <v>272.0591682562687</v>
@@ -30299,31 +30299,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446044746268</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I39" t="n">
         <v>107.3634103439874</v>
       </c>
       <c r="J39" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30353,19 +30353,19 @@
         <v>191.5907913200043</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9709236054903</v>
+        <v>149.5499752145324</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280694968886</v>
       </c>
       <c r="V39" t="n">
-        <v>205.2035799110479</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30399,28 +30399,28 @@
         <v>165.8243976546666</v>
       </c>
       <c r="I40" t="n">
-        <v>164.852968067965</v>
+        <v>200.4094700018121</v>
       </c>
       <c r="J40" t="n">
         <v>120.239607582909</v>
       </c>
       <c r="K40" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M40" t="n">
-        <v>25.21686539889345</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O40" t="n">
-        <v>73.03538593162384</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P40" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2169859636892</v>
@@ -30481,22 +30481,22 @@
         <v>241.009769215476</v>
       </c>
       <c r="J41" t="n">
-        <v>76.78161896459406</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K41" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M41" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>241.009769215476</v>
+        <v>54.69629248006599</v>
       </c>
       <c r="P41" t="n">
         <v>241.009769215476</v>
@@ -30508,10 +30508,10 @@
         <v>241.009769215476</v>
       </c>
       <c r="S41" t="n">
-        <v>227.5169945584482</v>
+        <v>241.009769215476</v>
       </c>
       <c r="T41" t="n">
-        <v>232.4172173879758</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U41" t="n">
         <v>241.009769215476</v>
@@ -30542,7 +30542,7 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
@@ -30551,16 +30551,16 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7446044746268</v>
+        <v>142.5613477969785</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7355245857741</v>
       </c>
       <c r="I42" t="n">
-        <v>92.96390202938669</v>
+        <v>107.3634103439874</v>
       </c>
       <c r="J42" t="n">
-        <v>52.4751703839026</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30596,7 +30596,7 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
@@ -30642,25 +30642,25 @@
         <v>120.239607582909</v>
       </c>
       <c r="K43" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M43" t="n">
-        <v>25.21686539889345</v>
+        <v>128.3154998197921</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O43" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P43" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q43" t="n">
-        <v>230.3156203845878</v>
+        <v>127.2169859636892</v>
       </c>
       <c r="R43" t="n">
         <v>203.4299611556341</v>
@@ -30718,19 +30718,19 @@
         <v>241.009769215476</v>
       </c>
       <c r="J44" t="n">
-        <v>76.78161896459406</v>
+        <v>241.009769215476</v>
       </c>
       <c r="K44" t="n">
         <v>241.009769215476</v>
       </c>
       <c r="L44" t="n">
-        <v>147.7565935091826</v>
+        <v>241.009769215476</v>
       </c>
       <c r="M44" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>241.009769215476</v>
+        <v>54.69629248006603</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,7 +30739,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="Q44" t="n">
-        <v>89.71173703742198</v>
+        <v>241.009769215476</v>
       </c>
       <c r="R44" t="n">
         <v>241.009769215476</v>
@@ -30748,7 +30748,7 @@
         <v>241.009769215476</v>
       </c>
       <c r="T44" t="n">
-        <v>222.4658813998193</v>
+        <v>241.009769215476</v>
       </c>
       <c r="U44" t="n">
         <v>241.009769215476</v>
@@ -30773,19 +30773,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>137.0243603682431</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
         <v>148.7446044746268</v>
@@ -30797,7 +30797,7 @@
         <v>107.3634103439874</v>
       </c>
       <c r="J45" t="n">
-        <v>52.4751703839026</v>
+        <v>52.47517038390261</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30833,16 +30833,16 @@
         <v>237.2280694968886</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>241.009769215476</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>223.3842861340256</v>
+        <v>205.2882791142796</v>
       </c>
     </row>
     <row r="46">
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>141.676141212225</v>
+        <v>241.009769215476</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30879,25 +30879,25 @@
         <v>120.239607582909</v>
       </c>
       <c r="K46" t="n">
-        <v>67.02998013918997</v>
+        <v>67.02998013919</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15181624817889</v>
+        <v>32.15181624817891</v>
       </c>
       <c r="M46" t="n">
-        <v>128.3154998197921</v>
+        <v>25.21686539889348</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52015736928135</v>
+        <v>16.52015736928137</v>
       </c>
       <c r="O46" t="n">
-        <v>37.4788839977768</v>
+        <v>37.47888399777682</v>
       </c>
       <c r="P46" t="n">
-        <v>58.47859890024888</v>
+        <v>58.4785989002489</v>
       </c>
       <c r="Q46" t="n">
-        <v>127.2169859636892</v>
+        <v>130.9819923813368</v>
       </c>
       <c r="R46" t="n">
         <v>203.4299611556341</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H11" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I11" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K11" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L11" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M11" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N11" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O11" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P11" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S11" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I12" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N12" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O12" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P12" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R12" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S12" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T12" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H13" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I13" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L13" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q13" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R13" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S13" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H14" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I14" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K14" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L14" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M14" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N14" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O14" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P14" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S14" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I15" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N15" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O15" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P15" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R15" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S15" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T15" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H16" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I16" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L16" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q16" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R16" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S16" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H17" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I17" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K17" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L17" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M17" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N17" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O17" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P17" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S17" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I18" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N18" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O18" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P18" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R18" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S18" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T18" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H19" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I19" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L19" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q19" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R19" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S19" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H20" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I20" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K20" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L20" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M20" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N20" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O20" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P20" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S20" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I21" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N21" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O21" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P21" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R21" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S21" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T21" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H22" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I22" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L22" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q22" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R22" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S22" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H23" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I23" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K23" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L23" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M23" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N23" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O23" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P23" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S23" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I24" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N24" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O24" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P24" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R24" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S24" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T24" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H25" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I25" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L25" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R25" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S25" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H26" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I26" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K26" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L26" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M26" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N26" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O26" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P26" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S26" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I27" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N27" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O27" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P27" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R27" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S27" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T27" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H28" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I28" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L28" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q28" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R28" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S28" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H29" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I29" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K29" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L29" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M29" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N29" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O29" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P29" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S29" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I30" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N30" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O30" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P30" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R30" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S30" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T30" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H31" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I31" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L31" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q31" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R31" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S31" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H32" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I32" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K32" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L32" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M32" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N32" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O32" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P32" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S32" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I33" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N33" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O33" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P33" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R33" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S33" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T33" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H34" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I34" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L34" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R34" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S34" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H35" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I35" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K35" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L35" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M35" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N35" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O35" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P35" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S35" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I36" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N36" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O36" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P36" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R36" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S36" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T36" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H37" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I37" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L37" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q37" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R37" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S37" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H38" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I38" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K38" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L38" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M38" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N38" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O38" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P38" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S38" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I39" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N39" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O39" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P39" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R39" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S39" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T39" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H40" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I40" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L40" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q40" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R40" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S40" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H41" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I41" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K41" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L41" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M41" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N41" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O41" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P41" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S41" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I42" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N42" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O42" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P42" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R42" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S42" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T42" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H43" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I43" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L43" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q43" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R43" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S43" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4067191319631733</v>
+        <v>0.406719131963173</v>
       </c>
       <c r="H44" t="n">
-        <v>4.16531231021785</v>
+        <v>4.165312310217846</v>
       </c>
       <c r="I44" t="n">
-        <v>15.68003933501025</v>
+        <v>15.68003933501024</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51977792645941</v>
+        <v>34.51977792645938</v>
       </c>
       <c r="K44" t="n">
-        <v>51.73619878246055</v>
+        <v>51.73619878246051</v>
       </c>
       <c r="L44" t="n">
-        <v>64.18332941727853</v>
+        <v>64.18332941727847</v>
       </c>
       <c r="M44" t="n">
-        <v>71.4163207803286</v>
+        <v>71.41632078032855</v>
       </c>
       <c r="N44" t="n">
-        <v>72.57191151401898</v>
+        <v>72.57191151401892</v>
       </c>
       <c r="O44" t="n">
-        <v>68.52759814556018</v>
+        <v>68.52759814556012</v>
       </c>
       <c r="P44" t="n">
-        <v>58.48671957521933</v>
+        <v>58.48671957521928</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.92109066178816</v>
+        <v>43.92109066178813</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54857067318171</v>
+        <v>25.54857067318169</v>
       </c>
       <c r="S44" t="n">
-        <v>9.268112219610821</v>
+        <v>9.268112219610813</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780413000168792</v>
+        <v>1.780413000168791</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253753055705386</v>
+        <v>0.03253753055705383</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2176139204650132</v>
+        <v>0.217613920465013</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101692337122627</v>
+        <v>2.101692337122626</v>
       </c>
       <c r="I45" t="n">
-        <v>7.49240910372962</v>
+        <v>7.492409103729614</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55974324884583</v>
+        <v>20.55974324884581</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13987592000171</v>
+        <v>35.13987592000168</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24989970447577</v>
+        <v>47.24989970447574</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13840432133249</v>
+        <v>55.13840432133244</v>
       </c>
       <c r="N45" t="n">
-        <v>56.59775381427551</v>
+        <v>56.59775381427546</v>
       </c>
       <c r="O45" t="n">
-        <v>51.77588747134021</v>
+        <v>51.77588747134016</v>
       </c>
       <c r="P45" t="n">
-        <v>41.55471433862168</v>
+        <v>41.55471433862164</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77822605795501</v>
+        <v>27.77822605795499</v>
       </c>
       <c r="R45" t="n">
-        <v>13.51115200922249</v>
+        <v>13.51115200922248</v>
       </c>
       <c r="S45" t="n">
-        <v>4.042083127935658</v>
+        <v>4.042083127935655</v>
       </c>
       <c r="T45" t="n">
-        <v>0.877136810997136</v>
+        <v>0.8771368109971353</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431670529375087</v>
+        <v>0.01431670529375086</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824402007924973</v>
+        <v>0.1824402007924972</v>
       </c>
       <c r="H46" t="n">
-        <v>1.622059239773296</v>
+        <v>1.622059239773294</v>
       </c>
       <c r="I46" t="n">
-        <v>5.486474402014376</v>
+        <v>5.486474402014371</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89852219602956</v>
+        <v>12.89852219602955</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19623423752832</v>
+        <v>21.19623423752831</v>
       </c>
       <c r="L46" t="n">
-        <v>27.12388221600456</v>
+        <v>27.12388221600454</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59833074786392</v>
+        <v>28.59833074786389</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91832636309191</v>
+        <v>27.91832636309188</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78709310837954</v>
+        <v>25.78709310837952</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06531301221258</v>
+        <v>22.06531301221256</v>
       </c>
       <c r="Q46" t="n">
-        <v>15.27687899545175</v>
+        <v>15.27687899545174</v>
       </c>
       <c r="R46" t="n">
-        <v>8.20317484654265</v>
+        <v>8.203174846542645</v>
       </c>
       <c r="S46" t="n">
-        <v>3.179435135629248</v>
+        <v>3.179435135629245</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7795172215679429</v>
+        <v>0.7795172215679423</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009951283679590774</v>
+        <v>0.009951283679590767</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35194,22 +35194,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
         <v>0.129915453191039</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -35255,19 +35255,19 @@
         <v>3.199249640013477</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>3.199249640013477</v>
       </c>
       <c r="M9" t="n">
         <v>3.199249640013477</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>3.069987028295762</v>
       </c>
       <c r="O9" t="n">
-        <v>3.069987028295762</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>3.199249640013477</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35413,19 +35413,19 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.19277018258596</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M11" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="N11" t="n">
-        <v>123.2591898857864</v>
+        <v>76.08878094514372</v>
       </c>
       <c r="O11" t="n">
-        <v>34.56629766936135</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P11" t="n">
-        <v>163.0562918019791</v>
+        <v>68.92153760596049</v>
       </c>
       <c r="Q11" t="n">
         <v>88.43652711564587</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543463</v>
       </c>
       <c r="L12" t="n">
         <v>118.5181001296708</v>
@@ -35498,13 +35498,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O12" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46981137181807</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,10 +35547,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.96561390235715</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>13.53450538330099</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35565,16 +35565,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.9086565701589</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.996447904889</v>
+        <v>97.4738250065315</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9313987541744</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3666451884737</v>
+        <v>101.3666451884738</v>
       </c>
       <c r="K14" t="n">
-        <v>0.05802066359276776</v>
+        <v>171.4210720067668</v>
       </c>
       <c r="L14" t="n">
-        <v>47.19277018258596</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="M14" t="n">
-        <v>81.67868594641136</v>
+        <v>81.67868594641131</v>
       </c>
       <c r="N14" t="n">
-        <v>76.08878094514378</v>
+        <v>76.08878094514372</v>
       </c>
       <c r="O14" t="n">
-        <v>188.4979333192471</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P14" t="n">
-        <v>163.056291801979</v>
+        <v>4.319712972029389</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.43652711564582</v>
+        <v>88.43652711564584</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L15" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M15" t="n">
-        <v>183.5117642464701</v>
+        <v>183.51176424647</v>
       </c>
       <c r="N15" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="O15" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46981137181807</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35784,16 +35784,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>32.96561390235709</v>
+        <v>32.96561390235715</v>
       </c>
       <c r="E16" t="n">
-        <v>36.47212294084281</v>
+        <v>36.47212294084287</v>
       </c>
       <c r="F16" t="n">
-        <v>39.22138193462115</v>
+        <v>39.22138193462121</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>9.447489225915389</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -35811,19 +35811,19 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>99.78766345191805</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6281067837864</v>
+        <v>161.6281067837865</v>
       </c>
       <c r="O16" t="n">
-        <v>140.669380155291</v>
+        <v>60.4086109390953</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>119.669665252819</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>50.93127818937862</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43790171150837</v>
+        <v>56.43790171150835</v>
       </c>
       <c r="J17" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>37.06824088270421</v>
       </c>
       <c r="L17" t="n">
-        <v>47.19277018258596</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M17" t="n">
-        <v>81.67868594641136</v>
+        <v>81.67868594641131</v>
       </c>
       <c r="N17" t="n">
-        <v>76.08878094514378</v>
+        <v>76.08878094514372</v>
       </c>
       <c r="O17" t="n">
-        <v>34.56629766936135</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>186.9314958616564</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5661255446175</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35914,7 +35914,7 @@
         <v>74.98178952716516</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L18" t="n">
         <v>118.5181001296708</v>
@@ -35975,10 +35975,10 @@
         <v>188.497933319247</v>
       </c>
       <c r="O18" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P18" t="n">
-        <v>84.46981137181807</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43790171150842</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -36124,34 +36124,34 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.19277018258596</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M20" t="n">
-        <v>81.67868594641136</v>
+        <v>81.67868594641131</v>
       </c>
       <c r="N20" t="n">
-        <v>76.08878094514378</v>
+        <v>76.08878094514372</v>
       </c>
       <c r="O20" t="n">
-        <v>34.56629766936135</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>23.57546622567633</v>
       </c>
       <c r="Q20" t="n">
-        <v>155.6354978334149</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5661255446176</v>
+        <v>102.5661255446175</v>
       </c>
       <c r="S20" t="n">
-        <v>69.9306763685363</v>
+        <v>69.93067636853623</v>
       </c>
       <c r="T20" t="n">
-        <v>74.98178952716522</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U20" t="n">
-        <v>47.29712943433472</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L21" t="n">
         <v>118.5181001296708</v>
       </c>
       <c r="M21" t="n">
-        <v>183.51176424647</v>
+        <v>183.5117642464701</v>
       </c>
       <c r="N21" t="n">
         <v>188.4979333192471</v>
       </c>
       <c r="O21" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46981137181807</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36352,43 +36352,43 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>7.574334819583045</v>
+        <v>56.43790171150835</v>
       </c>
       <c r="J23" t="n">
-        <v>188.4979333192472</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.19277018258596</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M23" t="n">
-        <v>81.67868594641136</v>
+        <v>81.67868594641131</v>
       </c>
       <c r="N23" t="n">
-        <v>76.08878094514378</v>
+        <v>76.08878094514372</v>
       </c>
       <c r="O23" t="n">
-        <v>34.56629766936135</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4979333192472</v>
+        <v>155.6354978334156</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>102.5661255446175</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>69.93067636853623</v>
       </c>
       <c r="T23" t="n">
-        <v>74.98178952716522</v>
+        <v>74.98178952716516</v>
       </c>
       <c r="U23" t="n">
-        <v>47.29712943433472</v>
+        <v>47.29712943433466</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L24" t="n">
         <v>118.5181001296708</v>
@@ -36446,13 +36446,13 @@
         <v>183.5117642464701</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4979333192472</v>
+        <v>188.4979333192471</v>
       </c>
       <c r="O24" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46981137181817</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>136.7031315594069</v>
+        <v>136.703131559407</v>
       </c>
       <c r="K26" t="n">
         <v>206.7575583777</v>
@@ -36604,7 +36604,7 @@
         <v>295.1634364704123</v>
       </c>
       <c r="N26" t="n">
-        <v>289.573531469145</v>
+        <v>289.5735314691447</v>
       </c>
       <c r="O26" t="n">
         <v>248.0510481933623</v>
@@ -36616,7 +36616,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60320514163411</v>
+        <v>18.60320514163412</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L27" t="n">
         <v>118.5181001296708</v>
@@ -36686,10 +36686,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O27" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46981137181807</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36735,10 +36735,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>56.56566353525801</v>
+        <v>71.808609311776</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>74.55786830555434</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -36759,13 +36759,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>86.20505244415156</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.0058665262241</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36829,22 +36829,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>136.703131559407</v>
+        <v>136.7031315594069</v>
       </c>
       <c r="K29" t="n">
         <v>206.7575583777</v>
       </c>
       <c r="L29" t="n">
-        <v>260.677520706587</v>
+        <v>260.6775207065869</v>
       </c>
       <c r="M29" t="n">
-        <v>295.1634364704124</v>
+        <v>295.1634364704123</v>
       </c>
       <c r="N29" t="n">
         <v>289.5735314691448</v>
       </c>
       <c r="O29" t="n">
-        <v>248.0510481933624</v>
+        <v>248.0510481933623</v>
       </c>
       <c r="P29" t="n">
         <v>198.3927781729122</v>
@@ -36853,7 +36853,7 @@
         <v>123.773013486579</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60320514163417</v>
+        <v>18.60320514163413</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L30" t="n">
         <v>118.5181001296708</v>
@@ -36923,10 +36923,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O30" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46981137181807</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36963,7 +36963,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>16.93755083370843</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -36975,16 +36975,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>74.55786830555436</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.78397559684855</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.66035286933443</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>48.63178245603597</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36999,13 +36999,13 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>77.56537843772959</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>155.0061516237521</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.5308414262712</v>
+        <v>137.5308414262711</v>
       </c>
       <c r="K32" t="n">
         <v>207.5852682445642</v>
       </c>
       <c r="L32" t="n">
-        <v>261.5052305734512</v>
+        <v>241.3881058233369</v>
       </c>
       <c r="M32" t="n">
-        <v>295.9911463372766</v>
+        <v>295.9911463372765</v>
       </c>
       <c r="N32" t="n">
         <v>290.401241336009</v>
       </c>
       <c r="O32" t="n">
-        <v>248.8787580602266</v>
+        <v>248.8787580602265</v>
       </c>
       <c r="P32" t="n">
-        <v>199.2204880397765</v>
+        <v>199.2204880397764</v>
       </c>
       <c r="Q32" t="n">
-        <v>123.9145136118271</v>
+        <v>124.6007233534432</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>19.43091500849836</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L33" t="n">
         <v>118.5181001296708</v>
@@ -37160,10 +37160,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O33" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46981137181807</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37227,7 +37227,7 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>28.86761693067487</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -37236,16 +37236,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>197.7923030215839</v>
       </c>
       <c r="O34" t="n">
-        <v>139.5644455250827</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.095474427176</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,43 +37300,43 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04939904079267</v>
+        <v>31.04939904079266</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>195.2775492916746</v>
       </c>
       <c r="K35" t="n">
-        <v>260.4608093700286</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.19277018258596</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M35" t="n">
-        <v>81.67868594641136</v>
+        <v>81.67868594641131</v>
       </c>
       <c r="N35" t="n">
-        <v>260.4608093700286</v>
+        <v>76.08878094514372</v>
       </c>
       <c r="O35" t="n">
-        <v>260.4608093700286</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>211.8055706916711</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>182.3474312188467</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17762287390187</v>
+        <v>77.17762287390185</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>44.54217369782053</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U35" t="n">
-        <v>12.83866226088096</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L36" t="n">
         <v>118.5181001296708</v>
@@ -37397,10 +37397,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O36" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46981137181807</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -37479,7 +37479,7 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37537,43 +37537,43 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>31.04939904079266</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2775492916747</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>260.4608093700286</v>
+        <v>128.2072973145467</v>
       </c>
       <c r="L38" t="n">
-        <v>260.4608093700286</v>
+        <v>47.1927701825859</v>
       </c>
       <c r="M38" t="n">
-        <v>204.4653217684218</v>
+        <v>81.67868594641131</v>
       </c>
       <c r="N38" t="n">
-        <v>76.08878094514378</v>
+        <v>76.08878094514372</v>
       </c>
       <c r="O38" t="n">
-        <v>34.56629766936135</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>256.9671959051799</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>182.3474312188467</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>77.17762287390185</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>44.54217369782053</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>49.59328685644947</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>21.90862676361897</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L39" t="n">
         <v>118.5181001296708</v>
@@ -37634,10 +37634,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O39" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46981137181807</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>35.55650193384704</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>35.55650193384704</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -37777,37 +37777,37 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2281502508819</v>
       </c>
       <c r="K41" t="n">
-        <v>234.2825770691751</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L41" t="n">
-        <v>47.19277018258596</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6884551618874</v>
+        <v>81.67868594641131</v>
       </c>
       <c r="N41" t="n">
-        <v>76.08878094514378</v>
+        <v>76.08878094514372</v>
       </c>
       <c r="O41" t="n">
-        <v>275.5760668848374</v>
+        <v>89.26259014942728</v>
       </c>
       <c r="P41" t="n">
-        <v>225.9177968643873</v>
+        <v>225.9177968643872</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2980321780541</v>
+        <v>151.298032178054</v>
       </c>
       <c r="R41" t="n">
-        <v>46.1282238331092</v>
+        <v>46.12822383310917</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T41" t="n">
-        <v>9.951335988156496</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L42" t="n">
         <v>118.5181001296708</v>
@@ -37871,10 +37871,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O42" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46981137181807</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37944,7 +37944,7 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>103.0986344208986</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,37 +38014,37 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>164.2281502508819</v>
       </c>
       <c r="K44" t="n">
-        <v>234.2825770691751</v>
+        <v>234.282577069175</v>
       </c>
       <c r="L44" t="n">
-        <v>194.9493636917685</v>
+        <v>288.202539398062</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6884551618874</v>
+        <v>81.67868594641131</v>
       </c>
       <c r="N44" t="n">
-        <v>317.0985501606198</v>
+        <v>130.7850734252098</v>
       </c>
       <c r="O44" t="n">
-        <v>34.56629766936135</v>
+        <v>34.56629766936129</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9177968643873</v>
+        <v>225.9177968643872</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>151.298032178054</v>
       </c>
       <c r="R44" t="n">
-        <v>46.1282238331092</v>
+        <v>46.12822383310917</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49277465702786</v>
+        <v>13.49277465702785</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>18.54388781565679</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34679395543471</v>
+        <v>38.34679395543468</v>
       </c>
       <c r="L45" t="n">
         <v>118.5181001296708</v>
@@ -38108,10 +38108,10 @@
         <v>206.9747236472315</v>
       </c>
       <c r="O45" t="n">
-        <v>133.0312521404388</v>
+        <v>133.0312521404387</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46981137181807</v>
+        <v>84.46981137181803</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.33362800325105</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>103.0986344208986</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>3.765006417647556</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
